--- a/recursos/planillasImprimibles/Template_OP_v56.xlsx
+++ b/recursos/planillasImprimibles/Template_OP_v56.xlsx
@@ -96,9 +96,6 @@
     <t>Kg/u</t>
   </si>
   <si>
-    <t>Unidades</t>
-  </si>
-  <si>
     <t>Largo Esperado:</t>
   </si>
   <si>
@@ -136,6 +133,9 @@
   </si>
   <si>
     <t>Merma obtenida:</t>
+  </si>
+  <si>
+    <t>%</t>
   </si>
 </sst>
 </file>
@@ -492,129 +492,125 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1058,8 +1054,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AJ74"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" view="pageLayout" topLeftCell="A53" zoomScale="85" zoomScaleNormal="100" zoomScalePageLayoutView="85" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:W3"/>
+    <sheetView showGridLines="0" tabSelected="1" view="pageLayout" topLeftCell="A56" zoomScale="85" zoomScaleNormal="100" zoomScalePageLayoutView="85" workbookViewId="0">
+      <selection activeCell="E64" sqref="E64"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1072,125 +1068,125 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:36" ht="21" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="A1" s="53"/>
-      <c r="B1" s="81" t="s">
+      <c r="A1" s="89"/>
+      <c r="B1" s="56" t="s">
+        <v>32</v>
+      </c>
+      <c r="C1" s="57"/>
+      <c r="D1" s="57"/>
+      <c r="E1" s="57"/>
+      <c r="F1" s="57"/>
+      <c r="G1" s="57"/>
+      <c r="H1" s="57"/>
+      <c r="I1" s="57"/>
+      <c r="J1" s="57"/>
+      <c r="K1" s="57"/>
+      <c r="L1" s="57"/>
+      <c r="M1" s="57"/>
+      <c r="N1" s="57"/>
+      <c r="O1" s="57"/>
+      <c r="P1" s="57"/>
+      <c r="Q1" s="57"/>
+      <c r="R1" s="57"/>
+      <c r="S1" s="57"/>
+      <c r="T1" s="57"/>
+      <c r="U1" s="57"/>
+      <c r="V1" s="57"/>
+      <c r="W1" s="57"/>
+      <c r="X1" s="46"/>
+      <c r="Y1" s="46"/>
+      <c r="Z1" s="57" t="s">
         <v>33</v>
       </c>
-      <c r="C1" s="82"/>
-      <c r="D1" s="82"/>
-      <c r="E1" s="82"/>
-      <c r="F1" s="82"/>
-      <c r="G1" s="82"/>
-      <c r="H1" s="82"/>
-      <c r="I1" s="82"/>
-      <c r="J1" s="82"/>
-      <c r="K1" s="82"/>
-      <c r="L1" s="82"/>
-      <c r="M1" s="82"/>
-      <c r="N1" s="82"/>
-      <c r="O1" s="82"/>
-      <c r="P1" s="82"/>
-      <c r="Q1" s="82"/>
-      <c r="R1" s="82"/>
-      <c r="S1" s="82"/>
-      <c r="T1" s="82"/>
-      <c r="U1" s="82"/>
-      <c r="V1" s="82"/>
-      <c r="W1" s="82"/>
-      <c r="X1" s="46"/>
-      <c r="Y1" s="46"/>
-      <c r="Z1" s="82" t="s">
-        <v>34</v>
-      </c>
-      <c r="AA1" s="82"/>
-      <c r="AB1" s="82"/>
-      <c r="AC1" s="82"/>
-      <c r="AD1" s="82"/>
-      <c r="AE1" s="82"/>
-      <c r="AF1" s="82"/>
+      <c r="AA1" s="57"/>
+      <c r="AB1" s="57"/>
+      <c r="AC1" s="57"/>
+      <c r="AD1" s="57"/>
+      <c r="AE1" s="57"/>
+      <c r="AF1" s="57"/>
       <c r="AG1" s="47"/>
       <c r="AH1" s="47"/>
       <c r="AI1" s="47"/>
-      <c r="AJ1" s="53"/>
+      <c r="AJ1" s="89"/>
     </row>
     <row r="2" spans="1:36" ht="5.25" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="A2" s="53"/>
-      <c r="B2" s="81"/>
-      <c r="C2" s="82"/>
-      <c r="D2" s="82"/>
-      <c r="E2" s="82"/>
-      <c r="F2" s="82"/>
-      <c r="G2" s="82"/>
-      <c r="H2" s="82"/>
-      <c r="I2" s="82"/>
-      <c r="J2" s="82"/>
-      <c r="K2" s="82"/>
-      <c r="L2" s="82"/>
-      <c r="M2" s="82"/>
-      <c r="N2" s="82"/>
-      <c r="O2" s="82"/>
-      <c r="P2" s="82"/>
-      <c r="Q2" s="82"/>
-      <c r="R2" s="82"/>
-      <c r="S2" s="82"/>
-      <c r="T2" s="82"/>
-      <c r="U2" s="82"/>
-      <c r="V2" s="82"/>
-      <c r="W2" s="82"/>
+      <c r="A2" s="89"/>
+      <c r="B2" s="56"/>
+      <c r="C2" s="57"/>
+      <c r="D2" s="57"/>
+      <c r="E2" s="57"/>
+      <c r="F2" s="57"/>
+      <c r="G2" s="57"/>
+      <c r="H2" s="57"/>
+      <c r="I2" s="57"/>
+      <c r="J2" s="57"/>
+      <c r="K2" s="57"/>
+      <c r="L2" s="57"/>
+      <c r="M2" s="57"/>
+      <c r="N2" s="57"/>
+      <c r="O2" s="57"/>
+      <c r="P2" s="57"/>
+      <c r="Q2" s="57"/>
+      <c r="R2" s="57"/>
+      <c r="S2" s="57"/>
+      <c r="T2" s="57"/>
+      <c r="U2" s="57"/>
+      <c r="V2" s="57"/>
+      <c r="W2" s="57"/>
       <c r="X2" s="46"/>
       <c r="Y2" s="46"/>
-      <c r="Z2" s="82"/>
-      <c r="AA2" s="82"/>
-      <c r="AB2" s="82"/>
-      <c r="AC2" s="82"/>
-      <c r="AD2" s="82"/>
-      <c r="AE2" s="82"/>
-      <c r="AF2" s="82"/>
+      <c r="Z2" s="57"/>
+      <c r="AA2" s="57"/>
+      <c r="AB2" s="57"/>
+      <c r="AC2" s="57"/>
+      <c r="AD2" s="57"/>
+      <c r="AE2" s="57"/>
+      <c r="AF2" s="57"/>
       <c r="AG2" s="47"/>
       <c r="AH2" s="47"/>
       <c r="AI2" s="47"/>
-      <c r="AJ2" s="53"/>
+      <c r="AJ2" s="89"/>
     </row>
     <row r="3" spans="1:36" ht="3.75" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="A3" s="53"/>
-      <c r="B3" s="81"/>
-      <c r="C3" s="82"/>
-      <c r="D3" s="82"/>
-      <c r="E3" s="82"/>
-      <c r="F3" s="82"/>
-      <c r="G3" s="82"/>
-      <c r="H3" s="82"/>
-      <c r="I3" s="82"/>
-      <c r="J3" s="82"/>
-      <c r="K3" s="82"/>
-      <c r="L3" s="82"/>
-      <c r="M3" s="82"/>
-      <c r="N3" s="82"/>
-      <c r="O3" s="82"/>
-      <c r="P3" s="82"/>
-      <c r="Q3" s="82"/>
-      <c r="R3" s="82"/>
-      <c r="S3" s="82"/>
-      <c r="T3" s="82"/>
-      <c r="U3" s="82"/>
-      <c r="V3" s="82"/>
-      <c r="W3" s="82"/>
+      <c r="A3" s="89"/>
+      <c r="B3" s="56"/>
+      <c r="C3" s="57"/>
+      <c r="D3" s="57"/>
+      <c r="E3" s="57"/>
+      <c r="F3" s="57"/>
+      <c r="G3" s="57"/>
+      <c r="H3" s="57"/>
+      <c r="I3" s="57"/>
+      <c r="J3" s="57"/>
+      <c r="K3" s="57"/>
+      <c r="L3" s="57"/>
+      <c r="M3" s="57"/>
+      <c r="N3" s="57"/>
+      <c r="O3" s="57"/>
+      <c r="P3" s="57"/>
+      <c r="Q3" s="57"/>
+      <c r="R3" s="57"/>
+      <c r="S3" s="57"/>
+      <c r="T3" s="57"/>
+      <c r="U3" s="57"/>
+      <c r="V3" s="57"/>
+      <c r="W3" s="57"/>
       <c r="X3" s="46"/>
       <c r="Y3" s="46"/>
-      <c r="Z3" s="82"/>
-      <c r="AA3" s="82"/>
-      <c r="AB3" s="82"/>
-      <c r="AC3" s="82"/>
-      <c r="AD3" s="82"/>
-      <c r="AE3" s="82"/>
-      <c r="AF3" s="82"/>
+      <c r="Z3" s="57"/>
+      <c r="AA3" s="57"/>
+      <c r="AB3" s="57"/>
+      <c r="AC3" s="57"/>
+      <c r="AD3" s="57"/>
+      <c r="AE3" s="57"/>
+      <c r="AF3" s="57"/>
       <c r="AG3" s="47"/>
       <c r="AH3" s="47"/>
       <c r="AI3" s="47"/>
-      <c r="AJ3" s="53"/>
+      <c r="AJ3" s="89"/>
     </row>
     <row r="4" spans="1:36" ht="3" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="53"/>
+      <c r="A4" s="89"/>
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
@@ -1225,10 +1221,10 @@
       <c r="AG4" s="1"/>
       <c r="AH4" s="1"/>
       <c r="AI4" s="1"/>
-      <c r="AJ4" s="53"/>
+      <c r="AJ4" s="89"/>
     </row>
     <row r="5" spans="1:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="53"/>
+      <c r="A5" s="89"/>
       <c r="B5" s="1"/>
       <c r="C5" s="75" t="s">
         <v>0</v>
@@ -1237,40 +1233,40 @@
       <c r="E5" s="75"/>
       <c r="F5" s="75"/>
       <c r="G5" s="75"/>
-      <c r="H5" s="89"/>
-      <c r="I5" s="89"/>
-      <c r="J5" s="89"/>
-      <c r="K5" s="89"/>
-      <c r="L5" s="89"/>
-      <c r="M5" s="89"/>
-      <c r="N5" s="89"/>
-      <c r="O5" s="89"/>
-      <c r="P5" s="89"/>
-      <c r="Q5" s="89"/>
-      <c r="R5" s="89"/>
+      <c r="H5" s="69"/>
+      <c r="I5" s="69"/>
+      <c r="J5" s="69"/>
+      <c r="K5" s="69"/>
+      <c r="L5" s="69"/>
+      <c r="M5" s="69"/>
+      <c r="N5" s="69"/>
+      <c r="O5" s="69"/>
+      <c r="P5" s="69"/>
+      <c r="Q5" s="69"/>
+      <c r="R5" s="69"/>
       <c r="S5" s="3"/>
       <c r="T5" s="4"/>
       <c r="U5" s="3"/>
       <c r="V5" s="3"/>
-      <c r="W5" s="55" t="s">
+      <c r="W5" s="70" t="s">
         <v>1</v>
       </c>
-      <c r="X5" s="55"/>
-      <c r="Y5" s="55"/>
-      <c r="Z5" s="55"/>
-      <c r="AA5" s="55"/>
-      <c r="AB5" s="55"/>
-      <c r="AC5" s="89"/>
-      <c r="AD5" s="89"/>
-      <c r="AE5" s="89"/>
-      <c r="AF5" s="89"/>
-      <c r="AG5" s="89"/>
-      <c r="AH5" s="89"/>
+      <c r="X5" s="70"/>
+      <c r="Y5" s="70"/>
+      <c r="Z5" s="70"/>
+      <c r="AA5" s="70"/>
+      <c r="AB5" s="70"/>
+      <c r="AC5" s="69"/>
+      <c r="AD5" s="69"/>
+      <c r="AE5" s="69"/>
+      <c r="AF5" s="69"/>
+      <c r="AG5" s="69"/>
+      <c r="AH5" s="69"/>
       <c r="AI5" s="22"/>
-      <c r="AJ5" s="53"/>
+      <c r="AJ5" s="89"/>
     </row>
     <row r="6" spans="1:36" ht="2.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="53"/>
+      <c r="A6" s="89"/>
       <c r="B6" s="5"/>
       <c r="C6" s="6"/>
       <c r="D6" s="5"/>
@@ -1305,10 +1301,10 @@
       <c r="AG6" s="5"/>
       <c r="AH6" s="5"/>
       <c r="AI6" s="5"/>
-      <c r="AJ6" s="53"/>
+      <c r="AJ6" s="89"/>
     </row>
     <row r="7" spans="1:36" ht="6" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="53"/>
+      <c r="A7" s="89"/>
       <c r="B7" s="8"/>
       <c r="C7" s="8"/>
       <c r="D7" s="8"/>
@@ -1343,52 +1339,52 @@
       <c r="AG7" s="8"/>
       <c r="AH7" s="8"/>
       <c r="AI7" s="23"/>
-      <c r="AJ7" s="53"/>
+      <c r="AJ7" s="89"/>
     </row>
     <row r="8" spans="1:36" ht="9.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="53"/>
+      <c r="A8" s="89"/>
       <c r="B8" s="9"/>
       <c r="C8" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="D8" s="55" t="s">
+      <c r="D8" s="70" t="s">
         <v>3</v>
       </c>
-      <c r="E8" s="55"/>
-      <c r="F8" s="55"/>
-      <c r="G8" s="55"/>
-      <c r="H8" s="55"/>
-      <c r="I8" s="55"/>
-      <c r="J8" s="55"/>
-      <c r="K8" s="55"/>
-      <c r="L8" s="55"/>
-      <c r="M8" s="55"/>
-      <c r="N8" s="55"/>
-      <c r="O8" s="55"/>
-      <c r="P8" s="55"/>
-      <c r="Q8" s="55"/>
-      <c r="R8" s="56"/>
-      <c r="S8" s="56"/>
-      <c r="T8" s="56"/>
-      <c r="U8" s="56"/>
-      <c r="V8" s="56"/>
-      <c r="W8" s="56"/>
-      <c r="X8" s="56"/>
-      <c r="Y8" s="56"/>
-      <c r="Z8" s="56"/>
-      <c r="AA8" s="56"/>
-      <c r="AB8" s="56"/>
-      <c r="AC8" s="56"/>
-      <c r="AD8" s="56"/>
-      <c r="AE8" s="56"/>
-      <c r="AF8" s="56"/>
-      <c r="AG8" s="56"/>
-      <c r="AH8" s="56"/>
-      <c r="AI8" s="56"/>
-      <c r="AJ8" s="53"/>
+      <c r="E8" s="70"/>
+      <c r="F8" s="70"/>
+      <c r="G8" s="70"/>
+      <c r="H8" s="70"/>
+      <c r="I8" s="70"/>
+      <c r="J8" s="70"/>
+      <c r="K8" s="70"/>
+      <c r="L8" s="70"/>
+      <c r="M8" s="70"/>
+      <c r="N8" s="70"/>
+      <c r="O8" s="70"/>
+      <c r="P8" s="70"/>
+      <c r="Q8" s="70"/>
+      <c r="R8" s="58"/>
+      <c r="S8" s="58"/>
+      <c r="T8" s="58"/>
+      <c r="U8" s="58"/>
+      <c r="V8" s="58"/>
+      <c r="W8" s="58"/>
+      <c r="X8" s="58"/>
+      <c r="Y8" s="58"/>
+      <c r="Z8" s="58"/>
+      <c r="AA8" s="58"/>
+      <c r="AB8" s="58"/>
+      <c r="AC8" s="58"/>
+      <c r="AD8" s="58"/>
+      <c r="AE8" s="58"/>
+      <c r="AF8" s="58"/>
+      <c r="AG8" s="58"/>
+      <c r="AH8" s="58"/>
+      <c r="AI8" s="58"/>
+      <c r="AJ8" s="89"/>
     </row>
     <row r="9" spans="1:36" ht="4.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="53"/>
+      <c r="A9" s="89"/>
       <c r="B9" s="11"/>
       <c r="C9" s="11"/>
       <c r="D9" s="11"/>
@@ -1423,54 +1419,54 @@
       <c r="AG9" s="11"/>
       <c r="AH9" s="11"/>
       <c r="AI9" s="11"/>
-      <c r="AJ9" s="53"/>
+      <c r="AJ9" s="89"/>
     </row>
     <row r="10" spans="1:36" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="53"/>
+      <c r="A10" s="89"/>
       <c r="B10" s="12"/>
       <c r="C10" s="9"/>
       <c r="D10" s="9"/>
       <c r="E10" s="76" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F10" s="76"/>
       <c r="G10" s="76"/>
-      <c r="H10" s="66"/>
-      <c r="I10" s="67"/>
-      <c r="J10" s="67"/>
-      <c r="K10" s="67"/>
-      <c r="L10" s="67"/>
-      <c r="M10" s="67"/>
-      <c r="N10" s="67"/>
-      <c r="O10" s="67"/>
-      <c r="P10" s="67"/>
-      <c r="Q10" s="67"/>
-      <c r="R10" s="67"/>
-      <c r="S10" s="69"/>
+      <c r="H10" s="71"/>
+      <c r="I10" s="72"/>
+      <c r="J10" s="72"/>
+      <c r="K10" s="72"/>
+      <c r="L10" s="72"/>
+      <c r="M10" s="72"/>
+      <c r="N10" s="72"/>
+      <c r="O10" s="72"/>
+      <c r="P10" s="72"/>
+      <c r="Q10" s="72"/>
+      <c r="R10" s="72"/>
+      <c r="S10" s="73"/>
       <c r="T10" s="12"/>
-      <c r="U10" s="90" t="s">
-        <v>31</v>
+      <c r="U10" s="74" t="s">
+        <v>30</v>
       </c>
-      <c r="V10" s="90"/>
-      <c r="W10" s="90"/>
-      <c r="X10" s="90"/>
-      <c r="Y10" s="90"/>
-      <c r="Z10" s="66"/>
-      <c r="AA10" s="67"/>
-      <c r="AB10" s="67"/>
-      <c r="AC10" s="67"/>
-      <c r="AD10" s="67" t="s">
+      <c r="V10" s="74"/>
+      <c r="W10" s="74"/>
+      <c r="X10" s="74"/>
+      <c r="Y10" s="74"/>
+      <c r="Z10" s="71"/>
+      <c r="AA10" s="72"/>
+      <c r="AB10" s="72"/>
+      <c r="AC10" s="72"/>
+      <c r="AD10" s="72" t="s">
         <v>4</v>
       </c>
-      <c r="AE10" s="69"/>
+      <c r="AE10" s="73"/>
       <c r="AF10" s="9"/>
       <c r="AG10" s="1"/>
       <c r="AH10" s="1"/>
       <c r="AI10" s="1"/>
-      <c r="AJ10" s="53"/>
+      <c r="AJ10" s="89"/>
     </row>
     <row r="11" spans="1:36" ht="4.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="53"/>
+      <c r="A11" s="89"/>
       <c r="B11" s="13"/>
       <c r="C11" s="9"/>
       <c r="D11" s="9"/>
@@ -1505,26 +1501,26 @@
       <c r="AG11" s="1"/>
       <c r="AH11" s="1"/>
       <c r="AI11" s="1"/>
-      <c r="AJ11" s="53"/>
+      <c r="AJ11" s="89"/>
     </row>
     <row r="12" spans="1:36" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="53"/>
+      <c r="A12" s="89"/>
       <c r="B12" s="15"/>
       <c r="C12" s="9"/>
       <c r="D12" s="9"/>
-      <c r="E12" s="83" t="s">
+      <c r="E12" s="61" t="s">
         <v>5</v>
       </c>
-      <c r="F12" s="83"/>
-      <c r="G12" s="83"/>
-      <c r="H12" s="83"/>
-      <c r="I12" s="83"/>
-      <c r="J12" s="83"/>
-      <c r="K12" s="83"/>
-      <c r="L12" s="83"/>
-      <c r="M12" s="84"/>
-      <c r="N12" s="85"/>
-      <c r="O12" s="85"/>
+      <c r="F12" s="61"/>
+      <c r="G12" s="61"/>
+      <c r="H12" s="61"/>
+      <c r="I12" s="61"/>
+      <c r="J12" s="61"/>
+      <c r="K12" s="61"/>
+      <c r="L12" s="61"/>
+      <c r="M12" s="62"/>
+      <c r="N12" s="63"/>
+      <c r="O12" s="63"/>
       <c r="P12" s="29" t="s">
         <v>6</v>
       </c>
@@ -1532,16 +1528,16 @@
       <c r="R12" s="9"/>
       <c r="S12" s="9"/>
       <c r="T12" s="9"/>
-      <c r="U12" s="86" t="s">
+      <c r="U12" s="64" t="s">
         <v>7</v>
       </c>
-      <c r="V12" s="86"/>
-      <c r="W12" s="86"/>
-      <c r="X12" s="86"/>
-      <c r="Y12" s="86"/>
-      <c r="Z12" s="86"/>
-      <c r="AA12" s="86"/>
-      <c r="AB12" s="86"/>
+      <c r="V12" s="64"/>
+      <c r="W12" s="64"/>
+      <c r="X12" s="64"/>
+      <c r="Y12" s="64"/>
+      <c r="Z12" s="64"/>
+      <c r="AA12" s="64"/>
+      <c r="AB12" s="64"/>
       <c r="AC12" s="30"/>
       <c r="AD12" s="31"/>
       <c r="AE12" s="31"/>
@@ -1549,26 +1545,26 @@
       <c r="AG12" s="31"/>
       <c r="AH12" s="32"/>
       <c r="AI12" s="9"/>
-      <c r="AJ12" s="53"/>
+      <c r="AJ12" s="89"/>
     </row>
     <row r="13" spans="1:36" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="53"/>
+      <c r="A13" s="89"/>
       <c r="B13" s="15"/>
       <c r="C13" s="9"/>
       <c r="D13" s="9"/>
-      <c r="E13" s="83" t="s">
+      <c r="E13" s="61" t="s">
         <v>9</v>
       </c>
-      <c r="F13" s="83"/>
-      <c r="G13" s="83"/>
-      <c r="H13" s="83"/>
-      <c r="I13" s="83"/>
-      <c r="J13" s="83"/>
-      <c r="K13" s="83"/>
-      <c r="L13" s="83"/>
-      <c r="M13" s="84"/>
-      <c r="N13" s="85"/>
-      <c r="O13" s="85"/>
+      <c r="F13" s="61"/>
+      <c r="G13" s="61"/>
+      <c r="H13" s="61"/>
+      <c r="I13" s="61"/>
+      <c r="J13" s="61"/>
+      <c r="K13" s="61"/>
+      <c r="L13" s="61"/>
+      <c r="M13" s="62"/>
+      <c r="N13" s="63"/>
+      <c r="O13" s="63"/>
       <c r="P13" s="29" t="s">
         <v>10</v>
       </c>
@@ -1576,27 +1572,27 @@
       <c r="R13" s="9"/>
       <c r="S13" s="9"/>
       <c r="T13" s="9"/>
-      <c r="U13" s="86"/>
-      <c r="V13" s="86"/>
-      <c r="W13" s="86"/>
-      <c r="X13" s="86"/>
-      <c r="Y13" s="86"/>
-      <c r="Z13" s="86"/>
-      <c r="AA13" s="86"/>
-      <c r="AB13" s="86"/>
-      <c r="AC13" s="87"/>
-      <c r="AD13" s="78"/>
-      <c r="AE13" s="78"/>
-      <c r="AF13" s="78" t="s">
+      <c r="U13" s="64"/>
+      <c r="V13" s="64"/>
+      <c r="W13" s="64"/>
+      <c r="X13" s="64"/>
+      <c r="Y13" s="64"/>
+      <c r="Z13" s="64"/>
+      <c r="AA13" s="64"/>
+      <c r="AB13" s="64"/>
+      <c r="AC13" s="65"/>
+      <c r="AD13" s="66"/>
+      <c r="AE13" s="66"/>
+      <c r="AF13" s="66" t="s">
         <v>8</v>
       </c>
-      <c r="AG13" s="78"/>
-      <c r="AH13" s="79"/>
+      <c r="AG13" s="66"/>
+      <c r="AH13" s="78"/>
       <c r="AI13" s="24"/>
-      <c r="AJ13" s="53"/>
+      <c r="AJ13" s="89"/>
     </row>
     <row r="14" spans="1:36" ht="4.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="53"/>
+      <c r="A14" s="89"/>
       <c r="B14" s="15"/>
       <c r="C14" s="15"/>
       <c r="D14" s="15"/>
@@ -1631,52 +1627,52 @@
       <c r="AG14" s="15"/>
       <c r="AH14" s="15"/>
       <c r="AI14" s="15"/>
-      <c r="AJ14" s="53"/>
+      <c r="AJ14" s="89"/>
     </row>
     <row r="15" spans="1:36" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="53"/>
+      <c r="A15" s="89"/>
       <c r="B15" s="12"/>
       <c r="C15" s="9"/>
-      <c r="D15" s="72" t="s">
+      <c r="D15" s="80" t="s">
         <v>11</v>
       </c>
-      <c r="E15" s="72"/>
-      <c r="F15" s="72"/>
-      <c r="G15" s="72"/>
-      <c r="H15" s="72"/>
-      <c r="I15" s="72"/>
-      <c r="J15" s="72"/>
-      <c r="K15" s="72"/>
-      <c r="L15" s="72"/>
-      <c r="M15" s="72"/>
-      <c r="N15" s="72"/>
-      <c r="O15" s="72"/>
-      <c r="P15" s="72"/>
-      <c r="Q15" s="72"/>
-      <c r="R15" s="72"/>
+      <c r="E15" s="80"/>
+      <c r="F15" s="80"/>
+      <c r="G15" s="80"/>
+      <c r="H15" s="80"/>
+      <c r="I15" s="80"/>
+      <c r="J15" s="80"/>
+      <c r="K15" s="80"/>
+      <c r="L15" s="80"/>
+      <c r="M15" s="80"/>
+      <c r="N15" s="80"/>
+      <c r="O15" s="80"/>
+      <c r="P15" s="80"/>
+      <c r="Q15" s="80"/>
+      <c r="R15" s="80"/>
       <c r="S15" s="12"/>
       <c r="T15" s="9"/>
       <c r="U15" s="9"/>
-      <c r="V15" s="80" t="s">
+      <c r="V15" s="79" t="s">
         <v>12</v>
       </c>
-      <c r="W15" s="80"/>
-      <c r="X15" s="80"/>
-      <c r="Y15" s="80"/>
-      <c r="Z15" s="80"/>
-      <c r="AA15" s="80"/>
-      <c r="AB15" s="80"/>
-      <c r="AC15" s="80"/>
-      <c r="AD15" s="80"/>
-      <c r="AE15" s="80"/>
-      <c r="AF15" s="80"/>
-      <c r="AG15" s="80"/>
+      <c r="W15" s="79"/>
+      <c r="X15" s="79"/>
+      <c r="Y15" s="79"/>
+      <c r="Z15" s="79"/>
+      <c r="AA15" s="79"/>
+      <c r="AB15" s="79"/>
+      <c r="AC15" s="79"/>
+      <c r="AD15" s="79"/>
+      <c r="AE15" s="79"/>
+      <c r="AF15" s="79"/>
+      <c r="AG15" s="79"/>
       <c r="AH15" s="9"/>
       <c r="AI15" s="9"/>
-      <c r="AJ15" s="53"/>
+      <c r="AJ15" s="89"/>
     </row>
     <row r="16" spans="1:36" ht="2.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="53"/>
+      <c r="A16" s="89"/>
       <c r="B16" s="16"/>
       <c r="C16" s="16"/>
       <c r="D16" s="16"/>
@@ -1711,10 +1707,10 @@
       <c r="AG16" s="16"/>
       <c r="AH16" s="16"/>
       <c r="AI16" s="16"/>
-      <c r="AJ16" s="53"/>
+      <c r="AJ16" s="89"/>
     </row>
     <row r="17" spans="1:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="53"/>
+      <c r="A17" s="89"/>
       <c r="B17" s="9"/>
       <c r="C17" s="77"/>
       <c r="D17" s="77"/>
@@ -1749,276 +1745,276 @@
       <c r="AG17" s="77"/>
       <c r="AH17" s="77"/>
       <c r="AI17" s="26"/>
-      <c r="AJ17" s="53"/>
+      <c r="AJ17" s="89"/>
     </row>
     <row r="18" spans="1:36" ht="11.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="53"/>
+      <c r="A18" s="89"/>
       <c r="B18" s="3"/>
-      <c r="C18" s="74"/>
-      <c r="D18" s="74"/>
-      <c r="E18" s="74"/>
-      <c r="F18" s="74"/>
-      <c r="G18" s="74"/>
-      <c r="H18" s="88"/>
-      <c r="I18" s="88"/>
-      <c r="J18" s="88"/>
-      <c r="K18" s="88"/>
-      <c r="L18" s="88"/>
-      <c r="M18" s="88"/>
-      <c r="N18" s="88"/>
-      <c r="O18" s="88"/>
-      <c r="P18" s="74"/>
-      <c r="Q18" s="74"/>
-      <c r="R18" s="74"/>
+      <c r="C18" s="67"/>
+      <c r="D18" s="67"/>
+      <c r="E18" s="67"/>
+      <c r="F18" s="67"/>
+      <c r="G18" s="67"/>
+      <c r="H18" s="68"/>
+      <c r="I18" s="68"/>
+      <c r="J18" s="68"/>
+      <c r="K18" s="68"/>
+      <c r="L18" s="68"/>
+      <c r="M18" s="68"/>
+      <c r="N18" s="68"/>
+      <c r="O18" s="68"/>
+      <c r="P18" s="67"/>
+      <c r="Q18" s="67"/>
+      <c r="R18" s="67"/>
       <c r="S18" s="38"/>
       <c r="T18" s="39"/>
-      <c r="U18" s="74"/>
-      <c r="V18" s="74"/>
-      <c r="W18" s="74"/>
-      <c r="X18" s="74"/>
-      <c r="Y18" s="74"/>
-      <c r="Z18" s="74"/>
-      <c r="AA18" s="74"/>
-      <c r="AB18" s="74"/>
-      <c r="AC18" s="74"/>
-      <c r="AD18" s="74"/>
-      <c r="AE18" s="74"/>
-      <c r="AF18" s="74"/>
-      <c r="AG18" s="74"/>
+      <c r="U18" s="67"/>
+      <c r="V18" s="67"/>
+      <c r="W18" s="67"/>
+      <c r="X18" s="67"/>
+      <c r="Y18" s="67"/>
+      <c r="Z18" s="67"/>
+      <c r="AA18" s="67"/>
+      <c r="AB18" s="67"/>
+      <c r="AC18" s="67"/>
+      <c r="AD18" s="67"/>
+      <c r="AE18" s="67"/>
+      <c r="AF18" s="67"/>
+      <c r="AG18" s="67"/>
       <c r="AH18" s="39"/>
       <c r="AI18" s="20"/>
-      <c r="AJ18" s="53"/>
+      <c r="AJ18" s="89"/>
     </row>
     <row r="19" spans="1:36" ht="11.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="53"/>
+      <c r="A19" s="89"/>
       <c r="B19" s="3"/>
-      <c r="C19" s="74"/>
-      <c r="D19" s="74"/>
-      <c r="E19" s="74"/>
-      <c r="F19" s="74"/>
-      <c r="G19" s="74"/>
-      <c r="H19" s="74"/>
-      <c r="I19" s="74"/>
-      <c r="J19" s="74"/>
-      <c r="K19" s="74"/>
-      <c r="L19" s="74"/>
-      <c r="M19" s="74"/>
-      <c r="N19" s="74"/>
-      <c r="O19" s="74"/>
-      <c r="P19" s="74"/>
-      <c r="Q19" s="74"/>
-      <c r="R19" s="74"/>
+      <c r="C19" s="67"/>
+      <c r="D19" s="67"/>
+      <c r="E19" s="67"/>
+      <c r="F19" s="67"/>
+      <c r="G19" s="67"/>
+      <c r="H19" s="67"/>
+      <c r="I19" s="67"/>
+      <c r="J19" s="67"/>
+      <c r="K19" s="67"/>
+      <c r="L19" s="67"/>
+      <c r="M19" s="67"/>
+      <c r="N19" s="67"/>
+      <c r="O19" s="67"/>
+      <c r="P19" s="67"/>
+      <c r="Q19" s="67"/>
+      <c r="R19" s="67"/>
       <c r="S19" s="38"/>
       <c r="T19" s="39"/>
-      <c r="U19" s="74"/>
-      <c r="V19" s="74"/>
-      <c r="W19" s="74"/>
-      <c r="X19" s="74"/>
-      <c r="Y19" s="74"/>
-      <c r="Z19" s="74"/>
-      <c r="AA19" s="74"/>
-      <c r="AB19" s="74"/>
-      <c r="AC19" s="74"/>
-      <c r="AD19" s="74"/>
-      <c r="AE19" s="74"/>
-      <c r="AF19" s="74"/>
-      <c r="AG19" s="74"/>
+      <c r="U19" s="67"/>
+      <c r="V19" s="67"/>
+      <c r="W19" s="67"/>
+      <c r="X19" s="67"/>
+      <c r="Y19" s="67"/>
+      <c r="Z19" s="67"/>
+      <c r="AA19" s="67"/>
+      <c r="AB19" s="67"/>
+      <c r="AC19" s="67"/>
+      <c r="AD19" s="67"/>
+      <c r="AE19" s="67"/>
+      <c r="AF19" s="67"/>
+      <c r="AG19" s="67"/>
       <c r="AH19" s="39"/>
       <c r="AI19" s="20"/>
-      <c r="AJ19" s="53"/>
+      <c r="AJ19" s="89"/>
     </row>
     <row r="20" spans="1:36" ht="11.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="53"/>
+      <c r="A20" s="89"/>
       <c r="B20" s="3"/>
-      <c r="C20" s="74"/>
-      <c r="D20" s="74"/>
-      <c r="E20" s="74"/>
-      <c r="F20" s="74"/>
-      <c r="G20" s="74"/>
-      <c r="H20" s="74"/>
-      <c r="I20" s="74"/>
-      <c r="J20" s="74"/>
-      <c r="K20" s="74"/>
-      <c r="L20" s="74"/>
-      <c r="M20" s="74"/>
-      <c r="N20" s="74"/>
-      <c r="O20" s="74"/>
-      <c r="P20" s="74"/>
-      <c r="Q20" s="74"/>
-      <c r="R20" s="74"/>
+      <c r="C20" s="67"/>
+      <c r="D20" s="67"/>
+      <c r="E20" s="67"/>
+      <c r="F20" s="67"/>
+      <c r="G20" s="67"/>
+      <c r="H20" s="67"/>
+      <c r="I20" s="67"/>
+      <c r="J20" s="67"/>
+      <c r="K20" s="67"/>
+      <c r="L20" s="67"/>
+      <c r="M20" s="67"/>
+      <c r="N20" s="67"/>
+      <c r="O20" s="67"/>
+      <c r="P20" s="67"/>
+      <c r="Q20" s="67"/>
+      <c r="R20" s="67"/>
       <c r="S20" s="38"/>
       <c r="T20" s="39"/>
-      <c r="U20" s="74"/>
-      <c r="V20" s="74"/>
-      <c r="W20" s="74"/>
-      <c r="X20" s="74"/>
-      <c r="Y20" s="74"/>
-      <c r="Z20" s="74"/>
-      <c r="AA20" s="74"/>
-      <c r="AB20" s="74"/>
-      <c r="AC20" s="74"/>
-      <c r="AD20" s="74"/>
-      <c r="AE20" s="74"/>
-      <c r="AF20" s="74"/>
-      <c r="AG20" s="74"/>
+      <c r="U20" s="67"/>
+      <c r="V20" s="67"/>
+      <c r="W20" s="67"/>
+      <c r="X20" s="67"/>
+      <c r="Y20" s="67"/>
+      <c r="Z20" s="67"/>
+      <c r="AA20" s="67"/>
+      <c r="AB20" s="67"/>
+      <c r="AC20" s="67"/>
+      <c r="AD20" s="67"/>
+      <c r="AE20" s="67"/>
+      <c r="AF20" s="67"/>
+      <c r="AG20" s="67"/>
       <c r="AH20" s="39"/>
       <c r="AI20" s="20"/>
-      <c r="AJ20" s="53"/>
+      <c r="AJ20" s="89"/>
     </row>
     <row r="21" spans="1:36" ht="11.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="53"/>
+      <c r="A21" s="89"/>
       <c r="B21" s="3"/>
-      <c r="C21" s="74"/>
-      <c r="D21" s="74"/>
-      <c r="E21" s="74"/>
-      <c r="F21" s="74"/>
-      <c r="G21" s="74"/>
-      <c r="H21" s="74"/>
-      <c r="I21" s="74"/>
-      <c r="J21" s="74"/>
-      <c r="K21" s="74"/>
-      <c r="L21" s="74"/>
-      <c r="M21" s="74"/>
-      <c r="N21" s="74"/>
-      <c r="O21" s="74"/>
-      <c r="P21" s="74"/>
-      <c r="Q21" s="74"/>
-      <c r="R21" s="74"/>
+      <c r="C21" s="67"/>
+      <c r="D21" s="67"/>
+      <c r="E21" s="67"/>
+      <c r="F21" s="67"/>
+      <c r="G21" s="67"/>
+      <c r="H21" s="67"/>
+      <c r="I21" s="67"/>
+      <c r="J21" s="67"/>
+      <c r="K21" s="67"/>
+      <c r="L21" s="67"/>
+      <c r="M21" s="67"/>
+      <c r="N21" s="67"/>
+      <c r="O21" s="67"/>
+      <c r="P21" s="67"/>
+      <c r="Q21" s="67"/>
+      <c r="R21" s="67"/>
       <c r="S21" s="38"/>
       <c r="T21" s="39"/>
-      <c r="U21" s="74"/>
-      <c r="V21" s="74"/>
-      <c r="W21" s="74"/>
-      <c r="X21" s="74"/>
-      <c r="Y21" s="74"/>
-      <c r="Z21" s="74"/>
-      <c r="AA21" s="74"/>
-      <c r="AB21" s="74"/>
-      <c r="AC21" s="74"/>
-      <c r="AD21" s="74"/>
-      <c r="AE21" s="74"/>
-      <c r="AF21" s="74"/>
-      <c r="AG21" s="74"/>
+      <c r="U21" s="67"/>
+      <c r="V21" s="67"/>
+      <c r="W21" s="67"/>
+      <c r="X21" s="67"/>
+      <c r="Y21" s="67"/>
+      <c r="Z21" s="67"/>
+      <c r="AA21" s="67"/>
+      <c r="AB21" s="67"/>
+      <c r="AC21" s="67"/>
+      <c r="AD21" s="67"/>
+      <c r="AE21" s="67"/>
+      <c r="AF21" s="67"/>
+      <c r="AG21" s="67"/>
       <c r="AH21" s="39"/>
       <c r="AI21" s="20"/>
-      <c r="AJ21" s="53"/>
+      <c r="AJ21" s="89"/>
     </row>
     <row r="22" spans="1:36" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="53"/>
+      <c r="A22" s="89"/>
       <c r="B22" s="3"/>
-      <c r="C22" s="74"/>
-      <c r="D22" s="74"/>
-      <c r="E22" s="74"/>
-      <c r="F22" s="74"/>
-      <c r="G22" s="74"/>
-      <c r="H22" s="74"/>
-      <c r="I22" s="74"/>
-      <c r="J22" s="74"/>
-      <c r="K22" s="74"/>
-      <c r="L22" s="74"/>
-      <c r="M22" s="74"/>
-      <c r="N22" s="74"/>
-      <c r="O22" s="74"/>
-      <c r="P22" s="74"/>
-      <c r="Q22" s="74"/>
-      <c r="R22" s="74"/>
+      <c r="C22" s="67"/>
+      <c r="D22" s="67"/>
+      <c r="E22" s="67"/>
+      <c r="F22" s="67"/>
+      <c r="G22" s="67"/>
+      <c r="H22" s="67"/>
+      <c r="I22" s="67"/>
+      <c r="J22" s="67"/>
+      <c r="K22" s="67"/>
+      <c r="L22" s="67"/>
+      <c r="M22" s="67"/>
+      <c r="N22" s="67"/>
+      <c r="O22" s="67"/>
+      <c r="P22" s="67"/>
+      <c r="Q22" s="67"/>
+      <c r="R22" s="67"/>
       <c r="S22" s="38"/>
       <c r="T22" s="39"/>
-      <c r="U22" s="74"/>
-      <c r="V22" s="74"/>
-      <c r="W22" s="74"/>
-      <c r="X22" s="74"/>
-      <c r="Y22" s="74"/>
-      <c r="Z22" s="74"/>
-      <c r="AA22" s="74"/>
-      <c r="AB22" s="74"/>
-      <c r="AC22" s="74"/>
-      <c r="AD22" s="74"/>
-      <c r="AE22" s="74"/>
-      <c r="AF22" s="74"/>
-      <c r="AG22" s="74"/>
+      <c r="U22" s="67"/>
+      <c r="V22" s="67"/>
+      <c r="W22" s="67"/>
+      <c r="X22" s="67"/>
+      <c r="Y22" s="67"/>
+      <c r="Z22" s="67"/>
+      <c r="AA22" s="67"/>
+      <c r="AB22" s="67"/>
+      <c r="AC22" s="67"/>
+      <c r="AD22" s="67"/>
+      <c r="AE22" s="67"/>
+      <c r="AF22" s="67"/>
+      <c r="AG22" s="67"/>
       <c r="AH22" s="39"/>
       <c r="AI22" s="20"/>
-      <c r="AJ22" s="53"/>
+      <c r="AJ22" s="89"/>
     </row>
     <row r="23" spans="1:36" ht="11.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="53"/>
+      <c r="A23" s="89"/>
       <c r="B23" s="3"/>
-      <c r="C23" s="74"/>
-      <c r="D23" s="74"/>
-      <c r="E23" s="74"/>
-      <c r="F23" s="74"/>
-      <c r="G23" s="74"/>
-      <c r="H23" s="74"/>
-      <c r="I23" s="74"/>
-      <c r="J23" s="74"/>
-      <c r="K23" s="74"/>
-      <c r="L23" s="74"/>
-      <c r="M23" s="74"/>
-      <c r="N23" s="74"/>
-      <c r="O23" s="74"/>
-      <c r="P23" s="74"/>
-      <c r="Q23" s="74"/>
-      <c r="R23" s="74"/>
+      <c r="C23" s="67"/>
+      <c r="D23" s="67"/>
+      <c r="E23" s="67"/>
+      <c r="F23" s="67"/>
+      <c r="G23" s="67"/>
+      <c r="H23" s="67"/>
+      <c r="I23" s="67"/>
+      <c r="J23" s="67"/>
+      <c r="K23" s="67"/>
+      <c r="L23" s="67"/>
+      <c r="M23" s="67"/>
+      <c r="N23" s="67"/>
+      <c r="O23" s="67"/>
+      <c r="P23" s="67"/>
+      <c r="Q23" s="67"/>
+      <c r="R23" s="67"/>
       <c r="S23" s="38"/>
       <c r="T23" s="39"/>
-      <c r="U23" s="74"/>
-      <c r="V23" s="74"/>
-      <c r="W23" s="74"/>
-      <c r="X23" s="74"/>
-      <c r="Y23" s="74"/>
-      <c r="Z23" s="74"/>
-      <c r="AA23" s="74"/>
-      <c r="AB23" s="74"/>
-      <c r="AC23" s="74"/>
-      <c r="AD23" s="74"/>
-      <c r="AE23" s="74"/>
-      <c r="AF23" s="74"/>
-      <c r="AG23" s="74"/>
+      <c r="U23" s="67"/>
+      <c r="V23" s="67"/>
+      <c r="W23" s="67"/>
+      <c r="X23" s="67"/>
+      <c r="Y23" s="67"/>
+      <c r="Z23" s="67"/>
+      <c r="AA23" s="67"/>
+      <c r="AB23" s="67"/>
+      <c r="AC23" s="67"/>
+      <c r="AD23" s="67"/>
+      <c r="AE23" s="67"/>
+      <c r="AF23" s="67"/>
+      <c r="AG23" s="67"/>
       <c r="AH23" s="39"/>
       <c r="AI23" s="20"/>
-      <c r="AJ23" s="53"/>
+      <c r="AJ23" s="89"/>
     </row>
     <row r="24" spans="1:36" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="53"/>
+      <c r="A24" s="89"/>
       <c r="B24" s="3"/>
-      <c r="C24" s="74"/>
-      <c r="D24" s="74"/>
-      <c r="E24" s="74"/>
-      <c r="F24" s="74"/>
-      <c r="G24" s="74"/>
-      <c r="H24" s="74"/>
-      <c r="I24" s="74"/>
-      <c r="J24" s="74"/>
-      <c r="K24" s="74"/>
-      <c r="L24" s="74"/>
-      <c r="M24" s="74"/>
-      <c r="N24" s="74"/>
-      <c r="O24" s="74"/>
-      <c r="P24" s="74"/>
-      <c r="Q24" s="74"/>
-      <c r="R24" s="74"/>
+      <c r="C24" s="67"/>
+      <c r="D24" s="67"/>
+      <c r="E24" s="67"/>
+      <c r="F24" s="67"/>
+      <c r="G24" s="67"/>
+      <c r="H24" s="67"/>
+      <c r="I24" s="67"/>
+      <c r="J24" s="67"/>
+      <c r="K24" s="67"/>
+      <c r="L24" s="67"/>
+      <c r="M24" s="67"/>
+      <c r="N24" s="67"/>
+      <c r="O24" s="67"/>
+      <c r="P24" s="67"/>
+      <c r="Q24" s="67"/>
+      <c r="R24" s="67"/>
       <c r="S24" s="38"/>
       <c r="T24" s="39"/>
-      <c r="U24" s="74"/>
-      <c r="V24" s="74"/>
-      <c r="W24" s="74"/>
-      <c r="X24" s="74"/>
-      <c r="Y24" s="74"/>
-      <c r="Z24" s="74"/>
-      <c r="AA24" s="74"/>
-      <c r="AB24" s="74"/>
-      <c r="AC24" s="74"/>
-      <c r="AD24" s="74"/>
-      <c r="AE24" s="74"/>
-      <c r="AF24" s="74"/>
-      <c r="AG24" s="74"/>
+      <c r="U24" s="67"/>
+      <c r="V24" s="67"/>
+      <c r="W24" s="67"/>
+      <c r="X24" s="67"/>
+      <c r="Y24" s="67"/>
+      <c r="Z24" s="67"/>
+      <c r="AA24" s="67"/>
+      <c r="AB24" s="67"/>
+      <c r="AC24" s="67"/>
+      <c r="AD24" s="67"/>
+      <c r="AE24" s="67"/>
+      <c r="AF24" s="67"/>
+      <c r="AG24" s="67"/>
       <c r="AH24" s="39"/>
       <c r="AI24" s="20"/>
-      <c r="AJ24" s="53"/>
+      <c r="AJ24" s="89"/>
     </row>
     <row r="25" spans="1:36" ht="11.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="53"/>
+      <c r="A25" s="89"/>
       <c r="B25" s="3"/>
       <c r="C25" s="40"/>
       <c r="D25" s="40"/>
@@ -2053,10 +2049,10 @@
       <c r="AG25" s="40"/>
       <c r="AH25" s="39"/>
       <c r="AI25" s="20"/>
-      <c r="AJ25" s="53"/>
+      <c r="AJ25" s="89"/>
     </row>
     <row r="26" spans="1:36" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="53"/>
+      <c r="A26" s="89"/>
       <c r="B26" s="3"/>
       <c r="C26" s="40"/>
       <c r="D26" s="40"/>
@@ -2091,10 +2087,10 @@
       <c r="AG26" s="40"/>
       <c r="AH26" s="39"/>
       <c r="AI26" s="20"/>
-      <c r="AJ26" s="53"/>
+      <c r="AJ26" s="89"/>
     </row>
     <row r="27" spans="1:36" ht="11.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="53"/>
+      <c r="A27" s="89"/>
       <c r="B27" s="3"/>
       <c r="C27" s="40"/>
       <c r="D27" s="40"/>
@@ -2129,10 +2125,10 @@
       <c r="AG27" s="40"/>
       <c r="AH27" s="39"/>
       <c r="AI27" s="20"/>
-      <c r="AJ27" s="53"/>
+      <c r="AJ27" s="89"/>
     </row>
     <row r="28" spans="1:36" ht="11.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="53"/>
+      <c r="A28" s="89"/>
       <c r="B28" s="3"/>
       <c r="C28" s="40"/>
       <c r="D28" s="40"/>
@@ -2167,10 +2163,10 @@
       <c r="AG28" s="40"/>
       <c r="AH28" s="39"/>
       <c r="AI28" s="20"/>
-      <c r="AJ28" s="53"/>
+      <c r="AJ28" s="89"/>
     </row>
     <row r="29" spans="1:36" ht="11.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="53"/>
+      <c r="A29" s="89"/>
       <c r="B29" s="3"/>
       <c r="C29" s="40"/>
       <c r="D29" s="40"/>
@@ -2205,10 +2201,10 @@
       <c r="AG29" s="40"/>
       <c r="AH29" s="39"/>
       <c r="AI29" s="20"/>
-      <c r="AJ29" s="53"/>
+      <c r="AJ29" s="89"/>
     </row>
     <row r="30" spans="1:36" ht="11.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="53"/>
+      <c r="A30" s="89"/>
       <c r="B30" s="3"/>
       <c r="C30" s="40"/>
       <c r="D30" s="40"/>
@@ -2243,48 +2239,48 @@
       <c r="AG30" s="40"/>
       <c r="AH30" s="39"/>
       <c r="AI30" s="20"/>
-      <c r="AJ30" s="53"/>
+      <c r="AJ30" s="89"/>
     </row>
     <row r="31" spans="1:36" ht="11.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="53"/>
+      <c r="A31" s="89"/>
       <c r="B31" s="17"/>
-      <c r="C31" s="74"/>
-      <c r="D31" s="74"/>
-      <c r="E31" s="74"/>
-      <c r="F31" s="74"/>
-      <c r="G31" s="74"/>
-      <c r="H31" s="74"/>
-      <c r="I31" s="74"/>
-      <c r="J31" s="74"/>
-      <c r="K31" s="74"/>
-      <c r="L31" s="74"/>
-      <c r="M31" s="74"/>
-      <c r="N31" s="74"/>
-      <c r="O31" s="74"/>
-      <c r="P31" s="74"/>
-      <c r="Q31" s="74"/>
-      <c r="R31" s="74"/>
+      <c r="C31" s="67"/>
+      <c r="D31" s="67"/>
+      <c r="E31" s="67"/>
+      <c r="F31" s="67"/>
+      <c r="G31" s="67"/>
+      <c r="H31" s="67"/>
+      <c r="I31" s="67"/>
+      <c r="J31" s="67"/>
+      <c r="K31" s="67"/>
+      <c r="L31" s="67"/>
+      <c r="M31" s="67"/>
+      <c r="N31" s="67"/>
+      <c r="O31" s="67"/>
+      <c r="P31" s="67"/>
+      <c r="Q31" s="67"/>
+      <c r="R31" s="67"/>
       <c r="S31" s="38"/>
       <c r="T31" s="39"/>
-      <c r="U31" s="74"/>
-      <c r="V31" s="74"/>
-      <c r="W31" s="74"/>
-      <c r="X31" s="74"/>
-      <c r="Y31" s="74"/>
-      <c r="Z31" s="74"/>
-      <c r="AA31" s="74"/>
-      <c r="AB31" s="74"/>
-      <c r="AC31" s="74"/>
-      <c r="AD31" s="74"/>
-      <c r="AE31" s="74"/>
-      <c r="AF31" s="74"/>
-      <c r="AG31" s="74"/>
+      <c r="U31" s="67"/>
+      <c r="V31" s="67"/>
+      <c r="W31" s="67"/>
+      <c r="X31" s="67"/>
+      <c r="Y31" s="67"/>
+      <c r="Z31" s="67"/>
+      <c r="AA31" s="67"/>
+      <c r="AB31" s="67"/>
+      <c r="AC31" s="67"/>
+      <c r="AD31" s="67"/>
+      <c r="AE31" s="67"/>
+      <c r="AF31" s="67"/>
+      <c r="AG31" s="67"/>
       <c r="AH31" s="39"/>
       <c r="AI31" s="20"/>
-      <c r="AJ31" s="53"/>
+      <c r="AJ31" s="89"/>
     </row>
     <row r="32" spans="1:36" ht="11.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="53"/>
+      <c r="A32" s="89"/>
       <c r="B32" s="17"/>
       <c r="C32" s="40"/>
       <c r="D32" s="40"/>
@@ -2319,10 +2315,10 @@
       <c r="AG32" s="40"/>
       <c r="AH32" s="39"/>
       <c r="AI32" s="20"/>
-      <c r="AJ32" s="53"/>
+      <c r="AJ32" s="89"/>
     </row>
     <row r="33" spans="1:36" ht="11.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="53"/>
+      <c r="A33" s="89"/>
       <c r="B33" s="17"/>
       <c r="C33" s="40"/>
       <c r="D33" s="40"/>
@@ -2357,10 +2353,10 @@
       <c r="AG33" s="40"/>
       <c r="AH33" s="39"/>
       <c r="AI33" s="20"/>
-      <c r="AJ33" s="53"/>
+      <c r="AJ33" s="89"/>
     </row>
     <row r="34" spans="1:36" ht="11.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="53"/>
+      <c r="A34" s="89"/>
       <c r="B34" s="17"/>
       <c r="C34" s="40"/>
       <c r="D34" s="40"/>
@@ -2395,86 +2391,86 @@
       <c r="AG34" s="40"/>
       <c r="AH34" s="39"/>
       <c r="AI34" s="20"/>
-      <c r="AJ34" s="53"/>
+      <c r="AJ34" s="89"/>
     </row>
     <row r="35" spans="1:36" ht="11.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="53"/>
+      <c r="A35" s="89"/>
       <c r="B35" s="17"/>
-      <c r="C35" s="74"/>
-      <c r="D35" s="74"/>
-      <c r="E35" s="74"/>
-      <c r="F35" s="74"/>
-      <c r="G35" s="74"/>
-      <c r="H35" s="74"/>
-      <c r="I35" s="74"/>
-      <c r="J35" s="74"/>
-      <c r="K35" s="74"/>
-      <c r="L35" s="74"/>
-      <c r="M35" s="74"/>
-      <c r="N35" s="74"/>
-      <c r="O35" s="74"/>
-      <c r="P35" s="74"/>
-      <c r="Q35" s="74"/>
-      <c r="R35" s="74"/>
+      <c r="C35" s="67"/>
+      <c r="D35" s="67"/>
+      <c r="E35" s="67"/>
+      <c r="F35" s="67"/>
+      <c r="G35" s="67"/>
+      <c r="H35" s="67"/>
+      <c r="I35" s="67"/>
+      <c r="J35" s="67"/>
+      <c r="K35" s="67"/>
+      <c r="L35" s="67"/>
+      <c r="M35" s="67"/>
+      <c r="N35" s="67"/>
+      <c r="O35" s="67"/>
+      <c r="P35" s="67"/>
+      <c r="Q35" s="67"/>
+      <c r="R35" s="67"/>
       <c r="S35" s="38"/>
       <c r="T35" s="39"/>
-      <c r="U35" s="74"/>
-      <c r="V35" s="74"/>
-      <c r="W35" s="74"/>
-      <c r="X35" s="74"/>
-      <c r="Y35" s="74"/>
-      <c r="Z35" s="74"/>
-      <c r="AA35" s="74"/>
-      <c r="AB35" s="74"/>
-      <c r="AC35" s="74"/>
-      <c r="AD35" s="74"/>
-      <c r="AE35" s="74"/>
-      <c r="AF35" s="74"/>
-      <c r="AG35" s="74"/>
+      <c r="U35" s="67"/>
+      <c r="V35" s="67"/>
+      <c r="W35" s="67"/>
+      <c r="X35" s="67"/>
+      <c r="Y35" s="67"/>
+      <c r="Z35" s="67"/>
+      <c r="AA35" s="67"/>
+      <c r="AB35" s="67"/>
+      <c r="AC35" s="67"/>
+      <c r="AD35" s="67"/>
+      <c r="AE35" s="67"/>
+      <c r="AF35" s="67"/>
+      <c r="AG35" s="67"/>
       <c r="AH35" s="39"/>
       <c r="AI35" s="20"/>
-      <c r="AJ35" s="53"/>
+      <c r="AJ35" s="89"/>
     </row>
     <row r="36" spans="1:36" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="53"/>
+      <c r="A36" s="89"/>
       <c r="B36" s="3"/>
-      <c r="C36" s="74"/>
-      <c r="D36" s="74"/>
-      <c r="E36" s="74"/>
-      <c r="F36" s="74"/>
-      <c r="G36" s="74"/>
-      <c r="H36" s="74"/>
-      <c r="I36" s="74"/>
-      <c r="J36" s="74"/>
-      <c r="K36" s="74"/>
-      <c r="L36" s="74"/>
-      <c r="M36" s="74"/>
-      <c r="N36" s="74"/>
-      <c r="O36" s="74"/>
-      <c r="P36" s="74"/>
-      <c r="Q36" s="74"/>
-      <c r="R36" s="74"/>
+      <c r="C36" s="67"/>
+      <c r="D36" s="67"/>
+      <c r="E36" s="67"/>
+      <c r="F36" s="67"/>
+      <c r="G36" s="67"/>
+      <c r="H36" s="67"/>
+      <c r="I36" s="67"/>
+      <c r="J36" s="67"/>
+      <c r="K36" s="67"/>
+      <c r="L36" s="67"/>
+      <c r="M36" s="67"/>
+      <c r="N36" s="67"/>
+      <c r="O36" s="67"/>
+      <c r="P36" s="67"/>
+      <c r="Q36" s="67"/>
+      <c r="R36" s="67"/>
       <c r="S36" s="38"/>
       <c r="T36" s="39"/>
-      <c r="U36" s="74"/>
-      <c r="V36" s="74"/>
-      <c r="W36" s="74"/>
-      <c r="X36" s="74"/>
-      <c r="Y36" s="74"/>
-      <c r="Z36" s="74"/>
-      <c r="AA36" s="74"/>
-      <c r="AB36" s="74"/>
-      <c r="AC36" s="74"/>
-      <c r="AD36" s="74"/>
-      <c r="AE36" s="74"/>
-      <c r="AF36" s="74"/>
-      <c r="AG36" s="74"/>
+      <c r="U36" s="67"/>
+      <c r="V36" s="67"/>
+      <c r="W36" s="67"/>
+      <c r="X36" s="67"/>
+      <c r="Y36" s="67"/>
+      <c r="Z36" s="67"/>
+      <c r="AA36" s="67"/>
+      <c r="AB36" s="67"/>
+      <c r="AC36" s="67"/>
+      <c r="AD36" s="67"/>
+      <c r="AE36" s="67"/>
+      <c r="AF36" s="67"/>
+      <c r="AG36" s="67"/>
       <c r="AH36" s="39"/>
       <c r="AI36" s="20"/>
-      <c r="AJ36" s="53"/>
+      <c r="AJ36" s="89"/>
     </row>
     <row r="37" spans="1:36" ht="11.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="53"/>
+      <c r="A37" s="89"/>
       <c r="B37" s="3"/>
       <c r="C37" s="40"/>
       <c r="D37" s="40"/>
@@ -2509,10 +2505,10 @@
       <c r="AG37" s="40"/>
       <c r="AH37" s="39"/>
       <c r="AI37" s="20"/>
-      <c r="AJ37" s="53"/>
+      <c r="AJ37" s="89"/>
     </row>
     <row r="38" spans="1:36" ht="11.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="53"/>
+      <c r="A38" s="89"/>
       <c r="B38" s="3"/>
       <c r="C38" s="40"/>
       <c r="D38" s="40"/>
@@ -2547,10 +2543,10 @@
       <c r="AG38" s="40"/>
       <c r="AH38" s="39"/>
       <c r="AI38" s="20"/>
-      <c r="AJ38" s="53"/>
+      <c r="AJ38" s="89"/>
     </row>
     <row r="39" spans="1:36" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="53"/>
+      <c r="A39" s="89"/>
       <c r="B39" s="3"/>
       <c r="C39" s="40"/>
       <c r="D39" s="40"/>
@@ -2585,10 +2581,10 @@
       <c r="AG39" s="40"/>
       <c r="AH39" s="39"/>
       <c r="AI39" s="20"/>
-      <c r="AJ39" s="53"/>
+      <c r="AJ39" s="89"/>
     </row>
     <row r="40" spans="1:36" ht="11.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="53"/>
+      <c r="A40" s="89"/>
       <c r="B40" s="3"/>
       <c r="C40" s="40"/>
       <c r="D40" s="40"/>
@@ -2623,10 +2619,10 @@
       <c r="AG40" s="40"/>
       <c r="AH40" s="39"/>
       <c r="AI40" s="20"/>
-      <c r="AJ40" s="53"/>
+      <c r="AJ40" s="89"/>
     </row>
     <row r="41" spans="1:36" ht="4.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="53"/>
+      <c r="A41" s="89"/>
       <c r="B41" s="3"/>
       <c r="C41" s="18"/>
       <c r="D41" s="18"/>
@@ -2661,10 +2657,10 @@
       <c r="AG41" s="18"/>
       <c r="AH41" s="20"/>
       <c r="AI41" s="20"/>
-      <c r="AJ41" s="53"/>
+      <c r="AJ41" s="89"/>
     </row>
     <row r="42" spans="1:36" ht="3" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="53"/>
+      <c r="A42" s="89"/>
       <c r="B42" s="21"/>
       <c r="C42" s="21"/>
       <c r="D42" s="21"/>
@@ -2699,52 +2695,52 @@
       <c r="AG42" s="21"/>
       <c r="AH42" s="21"/>
       <c r="AI42" s="21"/>
-      <c r="AJ42" s="53"/>
+      <c r="AJ42" s="89"/>
     </row>
     <row r="43" spans="1:36" ht="9.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="53"/>
+      <c r="A43" s="89"/>
       <c r="B43" s="1"/>
       <c r="C43" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="D43" s="55" t="s">
+      <c r="D43" s="70" t="s">
         <v>15</v>
       </c>
-      <c r="E43" s="55"/>
-      <c r="F43" s="55"/>
-      <c r="G43" s="55"/>
-      <c r="H43" s="55"/>
-      <c r="I43" s="55"/>
-      <c r="J43" s="55"/>
-      <c r="K43" s="55"/>
-      <c r="L43" s="55"/>
-      <c r="M43" s="55"/>
-      <c r="N43" s="55"/>
-      <c r="O43" s="55"/>
-      <c r="P43" s="55"/>
-      <c r="Q43" s="55"/>
-      <c r="R43" s="56"/>
-      <c r="S43" s="56"/>
-      <c r="T43" s="56"/>
-      <c r="U43" s="56"/>
-      <c r="V43" s="56"/>
-      <c r="W43" s="56"/>
-      <c r="X43" s="56"/>
-      <c r="Y43" s="56"/>
-      <c r="Z43" s="56"/>
-      <c r="AA43" s="56"/>
-      <c r="AB43" s="56"/>
-      <c r="AC43" s="56"/>
-      <c r="AD43" s="56"/>
-      <c r="AE43" s="56"/>
-      <c r="AF43" s="56"/>
-      <c r="AG43" s="56"/>
-      <c r="AH43" s="56"/>
-      <c r="AI43" s="56"/>
-      <c r="AJ43" s="53"/>
+      <c r="E43" s="70"/>
+      <c r="F43" s="70"/>
+      <c r="G43" s="70"/>
+      <c r="H43" s="70"/>
+      <c r="I43" s="70"/>
+      <c r="J43" s="70"/>
+      <c r="K43" s="70"/>
+      <c r="L43" s="70"/>
+      <c r="M43" s="70"/>
+      <c r="N43" s="70"/>
+      <c r="O43" s="70"/>
+      <c r="P43" s="70"/>
+      <c r="Q43" s="70"/>
+      <c r="R43" s="58"/>
+      <c r="S43" s="58"/>
+      <c r="T43" s="58"/>
+      <c r="U43" s="58"/>
+      <c r="V43" s="58"/>
+      <c r="W43" s="58"/>
+      <c r="X43" s="58"/>
+      <c r="Y43" s="58"/>
+      <c r="Z43" s="58"/>
+      <c r="AA43" s="58"/>
+      <c r="AB43" s="58"/>
+      <c r="AC43" s="58"/>
+      <c r="AD43" s="58"/>
+      <c r="AE43" s="58"/>
+      <c r="AF43" s="58"/>
+      <c r="AG43" s="58"/>
+      <c r="AH43" s="58"/>
+      <c r="AI43" s="58"/>
+      <c r="AJ43" s="89"/>
     </row>
     <row r="44" spans="1:36" ht="8.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A44" s="53"/>
+      <c r="A44" s="89"/>
       <c r="B44" s="11"/>
       <c r="C44" s="11"/>
       <c r="D44" s="11"/>
@@ -2779,56 +2775,56 @@
       <c r="AG44" s="11"/>
       <c r="AH44" s="11"/>
       <c r="AI44" s="11"/>
-      <c r="AJ44" s="53"/>
+      <c r="AJ44" s="89"/>
     </row>
     <row r="45" spans="1:36" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A45" s="53"/>
+      <c r="A45" s="89"/>
       <c r="B45" s="1"/>
       <c r="C45" s="9"/>
-      <c r="D45" s="72" t="s">
+      <c r="D45" s="80" t="s">
         <v>16</v>
       </c>
-      <c r="E45" s="72"/>
-      <c r="F45" s="72"/>
-      <c r="G45" s="72"/>
-      <c r="H45" s="72"/>
-      <c r="I45" s="72"/>
-      <c r="J45" s="72"/>
-      <c r="K45" s="72"/>
-      <c r="L45" s="57"/>
-      <c r="M45" s="58"/>
-      <c r="N45" s="58"/>
-      <c r="O45" s="58"/>
-      <c r="P45" s="58" t="s">
+      <c r="E45" s="80"/>
+      <c r="F45" s="80"/>
+      <c r="G45" s="80"/>
+      <c r="H45" s="80"/>
+      <c r="I45" s="80"/>
+      <c r="J45" s="80"/>
+      <c r="K45" s="80"/>
+      <c r="L45" s="81"/>
+      <c r="M45" s="82"/>
+      <c r="N45" s="82"/>
+      <c r="O45" s="82"/>
+      <c r="P45" s="82" t="s">
         <v>17</v>
       </c>
-      <c r="Q45" s="58"/>
-      <c r="R45" s="58"/>
-      <c r="S45" s="65"/>
+      <c r="Q45" s="82"/>
+      <c r="R45" s="82"/>
+      <c r="S45" s="84"/>
       <c r="T45" s="9"/>
       <c r="U45" s="1"/>
       <c r="V45" s="9"/>
-      <c r="W45" s="72" t="s">
+      <c r="W45" s="80" t="s">
         <v>18</v>
       </c>
-      <c r="X45" s="72"/>
-      <c r="Y45" s="72"/>
-      <c r="Z45" s="72"/>
-      <c r="AA45" s="57"/>
-      <c r="AB45" s="58"/>
-      <c r="AC45" s="58"/>
-      <c r="AD45" s="58"/>
-      <c r="AE45" s="58"/>
-      <c r="AF45" s="58"/>
+      <c r="X45" s="80"/>
+      <c r="Y45" s="80"/>
+      <c r="Z45" s="80"/>
+      <c r="AA45" s="81"/>
+      <c r="AB45" s="82"/>
+      <c r="AC45" s="82"/>
+      <c r="AD45" s="82"/>
+      <c r="AE45" s="82"/>
+      <c r="AF45" s="82"/>
       <c r="AG45" s="33" t="s">
         <v>13</v>
       </c>
       <c r="AH45" s="1"/>
       <c r="AI45" s="1"/>
-      <c r="AJ45" s="53"/>
+      <c r="AJ45" s="89"/>
     </row>
     <row r="46" spans="1:36" ht="4.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="53"/>
+      <c r="A46" s="89"/>
       <c r="B46" s="11"/>
       <c r="C46" s="11"/>
       <c r="D46" s="11"/>
@@ -2863,30 +2859,30 @@
       <c r="AG46" s="11"/>
       <c r="AH46" s="11"/>
       <c r="AI46" s="11"/>
-      <c r="AJ46" s="53"/>
+      <c r="AJ46" s="89"/>
     </row>
     <row r="47" spans="1:36" ht="9.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="53"/>
+      <c r="A47" s="89"/>
       <c r="B47" s="9"/>
       <c r="C47" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="D47" s="55" t="s">
+      <c r="D47" s="70" t="s">
         <v>20</v>
       </c>
-      <c r="E47" s="55"/>
-      <c r="F47" s="55"/>
-      <c r="G47" s="55"/>
-      <c r="H47" s="55"/>
-      <c r="I47" s="55"/>
-      <c r="J47" s="55"/>
-      <c r="K47" s="55"/>
-      <c r="L47" s="55"/>
-      <c r="M47" s="55"/>
-      <c r="N47" s="55"/>
-      <c r="O47" s="55"/>
-      <c r="P47" s="55"/>
-      <c r="Q47" s="55"/>
+      <c r="E47" s="70"/>
+      <c r="F47" s="70"/>
+      <c r="G47" s="70"/>
+      <c r="H47" s="70"/>
+      <c r="I47" s="70"/>
+      <c r="J47" s="70"/>
+      <c r="K47" s="70"/>
+      <c r="L47" s="70"/>
+      <c r="M47" s="70"/>
+      <c r="N47" s="70"/>
+      <c r="O47" s="70"/>
+      <c r="P47" s="70"/>
+      <c r="Q47" s="70"/>
       <c r="R47" s="27"/>
       <c r="S47" s="27"/>
       <c r="T47" s="27"/>
@@ -2905,10 +2901,10 @@
       <c r="AG47" s="27"/>
       <c r="AH47" s="27"/>
       <c r="AI47" s="27"/>
-      <c r="AJ47" s="53"/>
+      <c r="AJ47" s="89"/>
     </row>
     <row r="48" spans="1:36" ht="10.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A48" s="53"/>
+      <c r="A48" s="89"/>
       <c r="B48" s="11"/>
       <c r="C48" s="11"/>
       <c r="D48" s="11"/>
@@ -2943,238 +2939,238 @@
       <c r="AG48" s="11"/>
       <c r="AH48" s="11"/>
       <c r="AI48" s="11"/>
-      <c r="AJ48" s="53"/>
+      <c r="AJ48" s="89"/>
     </row>
     <row r="49" spans="1:36" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A49" s="53"/>
+      <c r="A49" s="89"/>
       <c r="B49" s="1"/>
       <c r="C49" s="41"/>
-      <c r="D49" s="73"/>
-      <c r="E49" s="73"/>
-      <c r="F49" s="73"/>
-      <c r="G49" s="73"/>
-      <c r="H49" s="73"/>
-      <c r="I49" s="73"/>
-      <c r="J49" s="73"/>
-      <c r="K49" s="73"/>
-      <c r="L49" s="73"/>
-      <c r="M49" s="73"/>
-      <c r="N49" s="73"/>
-      <c r="O49" s="73"/>
-      <c r="P49" s="73"/>
-      <c r="Q49" s="73"/>
-      <c r="R49" s="73"/>
-      <c r="S49" s="73"/>
-      <c r="T49" s="73"/>
-      <c r="U49" s="73"/>
-      <c r="V49" s="73"/>
-      <c r="W49" s="73"/>
-      <c r="X49" s="73"/>
-      <c r="Y49" s="73"/>
-      <c r="Z49" s="73"/>
-      <c r="AA49" s="73"/>
-      <c r="AB49" s="73"/>
-      <c r="AC49" s="73"/>
-      <c r="AD49" s="73"/>
-      <c r="AE49" s="73"/>
-      <c r="AF49" s="73"/>
-      <c r="AG49" s="73"/>
+      <c r="D49" s="83"/>
+      <c r="E49" s="83"/>
+      <c r="F49" s="83"/>
+      <c r="G49" s="83"/>
+      <c r="H49" s="83"/>
+      <c r="I49" s="83"/>
+      <c r="J49" s="83"/>
+      <c r="K49" s="83"/>
+      <c r="L49" s="83"/>
+      <c r="M49" s="83"/>
+      <c r="N49" s="83"/>
+      <c r="O49" s="83"/>
+      <c r="P49" s="83"/>
+      <c r="Q49" s="83"/>
+      <c r="R49" s="83"/>
+      <c r="S49" s="83"/>
+      <c r="T49" s="83"/>
+      <c r="U49" s="83"/>
+      <c r="V49" s="83"/>
+      <c r="W49" s="83"/>
+      <c r="X49" s="83"/>
+      <c r="Y49" s="83"/>
+      <c r="Z49" s="83"/>
+      <c r="AA49" s="83"/>
+      <c r="AB49" s="83"/>
+      <c r="AC49" s="83"/>
+      <c r="AD49" s="83"/>
+      <c r="AE49" s="83"/>
+      <c r="AF49" s="83"/>
+      <c r="AG49" s="83"/>
       <c r="AH49" s="25"/>
       <c r="AI49" s="25"/>
-      <c r="AJ49" s="53"/>
+      <c r="AJ49" s="89"/>
     </row>
     <row r="50" spans="1:36" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A50" s="53"/>
+      <c r="A50" s="89"/>
       <c r="B50" s="1"/>
       <c r="C50" s="42"/>
-      <c r="D50" s="61"/>
-      <c r="E50" s="61"/>
-      <c r="F50" s="61"/>
-      <c r="G50" s="61"/>
+      <c r="D50" s="59"/>
+      <c r="E50" s="59"/>
+      <c r="F50" s="59"/>
+      <c r="G50" s="59"/>
       <c r="H50" s="42"/>
-      <c r="I50" s="61"/>
-      <c r="J50" s="61"/>
-      <c r="K50" s="61"/>
+      <c r="I50" s="59"/>
+      <c r="J50" s="59"/>
+      <c r="K50" s="59"/>
       <c r="L50" s="42"/>
-      <c r="M50" s="61"/>
-      <c r="N50" s="61"/>
-      <c r="O50" s="61"/>
-      <c r="P50" s="61"/>
-      <c r="Q50" s="61"/>
-      <c r="R50" s="61"/>
-      <c r="S50" s="61"/>
-      <c r="T50" s="62"/>
-      <c r="U50" s="62"/>
-      <c r="V50" s="62"/>
-      <c r="W50" s="62"/>
-      <c r="X50" s="62"/>
-      <c r="Y50" s="62"/>
-      <c r="Z50" s="61"/>
-      <c r="AA50" s="61"/>
-      <c r="AB50" s="61"/>
-      <c r="AC50" s="61"/>
-      <c r="AD50" s="61"/>
-      <c r="AE50" s="61"/>
-      <c r="AF50" s="61"/>
-      <c r="AG50" s="61"/>
+      <c r="M50" s="59"/>
+      <c r="N50" s="59"/>
+      <c r="O50" s="59"/>
+      <c r="P50" s="59"/>
+      <c r="Q50" s="59"/>
+      <c r="R50" s="59"/>
+      <c r="S50" s="59"/>
+      <c r="T50" s="60"/>
+      <c r="U50" s="60"/>
+      <c r="V50" s="60"/>
+      <c r="W50" s="60"/>
+      <c r="X50" s="60"/>
+      <c r="Y50" s="60"/>
+      <c r="Z50" s="59"/>
+      <c r="AA50" s="59"/>
+      <c r="AB50" s="59"/>
+      <c r="AC50" s="59"/>
+      <c r="AD50" s="59"/>
+      <c r="AE50" s="59"/>
+      <c r="AF50" s="59"/>
+      <c r="AG50" s="59"/>
       <c r="AH50" s="25"/>
       <c r="AI50" s="25"/>
-      <c r="AJ50" s="53"/>
+      <c r="AJ50" s="89"/>
     </row>
     <row r="51" spans="1:36" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A51" s="53"/>
+      <c r="A51" s="89"/>
       <c r="B51" s="1"/>
       <c r="C51" s="42"/>
-      <c r="D51" s="61"/>
-      <c r="E51" s="61"/>
-      <c r="F51" s="61"/>
-      <c r="G51" s="61"/>
+      <c r="D51" s="59"/>
+      <c r="E51" s="59"/>
+      <c r="F51" s="59"/>
+      <c r="G51" s="59"/>
       <c r="H51" s="42"/>
-      <c r="I51" s="61"/>
-      <c r="J51" s="61"/>
-      <c r="K51" s="61"/>
+      <c r="I51" s="59"/>
+      <c r="J51" s="59"/>
+      <c r="K51" s="59"/>
       <c r="L51" s="42"/>
-      <c r="M51" s="61"/>
-      <c r="N51" s="61"/>
-      <c r="O51" s="61"/>
-      <c r="P51" s="61"/>
-      <c r="Q51" s="61"/>
-      <c r="R51" s="61"/>
-      <c r="S51" s="61"/>
-      <c r="T51" s="62"/>
-      <c r="U51" s="62"/>
-      <c r="V51" s="62"/>
-      <c r="W51" s="62"/>
-      <c r="X51" s="62"/>
-      <c r="Y51" s="62"/>
-      <c r="Z51" s="61"/>
-      <c r="AA51" s="61"/>
-      <c r="AB51" s="61"/>
-      <c r="AC51" s="61"/>
-      <c r="AD51" s="61"/>
-      <c r="AE51" s="61"/>
-      <c r="AF51" s="61"/>
-      <c r="AG51" s="61"/>
+      <c r="M51" s="59"/>
+      <c r="N51" s="59"/>
+      <c r="O51" s="59"/>
+      <c r="P51" s="59"/>
+      <c r="Q51" s="59"/>
+      <c r="R51" s="59"/>
+      <c r="S51" s="59"/>
+      <c r="T51" s="60"/>
+      <c r="U51" s="60"/>
+      <c r="V51" s="60"/>
+      <c r="W51" s="60"/>
+      <c r="X51" s="60"/>
+      <c r="Y51" s="60"/>
+      <c r="Z51" s="59"/>
+      <c r="AA51" s="59"/>
+      <c r="AB51" s="59"/>
+      <c r="AC51" s="59"/>
+      <c r="AD51" s="59"/>
+      <c r="AE51" s="59"/>
+      <c r="AF51" s="59"/>
+      <c r="AG51" s="59"/>
       <c r="AH51" s="25"/>
       <c r="AI51" s="25"/>
-      <c r="AJ51" s="53"/>
+      <c r="AJ51" s="89"/>
     </row>
     <row r="52" spans="1:36" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A52" s="53"/>
+      <c r="A52" s="89"/>
       <c r="B52" s="1"/>
       <c r="C52" s="42"/>
-      <c r="D52" s="61"/>
-      <c r="E52" s="61"/>
-      <c r="F52" s="61"/>
-      <c r="G52" s="61"/>
+      <c r="D52" s="59"/>
+      <c r="E52" s="59"/>
+      <c r="F52" s="59"/>
+      <c r="G52" s="59"/>
       <c r="H52" s="42"/>
-      <c r="I52" s="61"/>
-      <c r="J52" s="61"/>
-      <c r="K52" s="61"/>
+      <c r="I52" s="59"/>
+      <c r="J52" s="59"/>
+      <c r="K52" s="59"/>
       <c r="L52" s="42"/>
-      <c r="M52" s="61"/>
-      <c r="N52" s="61"/>
-      <c r="O52" s="61"/>
-      <c r="P52" s="61"/>
-      <c r="Q52" s="61"/>
-      <c r="R52" s="61"/>
-      <c r="S52" s="61"/>
-      <c r="T52" s="62"/>
-      <c r="U52" s="62"/>
-      <c r="V52" s="62"/>
-      <c r="W52" s="62"/>
-      <c r="X52" s="62"/>
-      <c r="Y52" s="62"/>
-      <c r="Z52" s="61"/>
-      <c r="AA52" s="61"/>
-      <c r="AB52" s="61"/>
-      <c r="AC52" s="61"/>
-      <c r="AD52" s="61"/>
-      <c r="AE52" s="61"/>
-      <c r="AF52" s="61"/>
-      <c r="AG52" s="61"/>
+      <c r="M52" s="59"/>
+      <c r="N52" s="59"/>
+      <c r="O52" s="59"/>
+      <c r="P52" s="59"/>
+      <c r="Q52" s="59"/>
+      <c r="R52" s="59"/>
+      <c r="S52" s="59"/>
+      <c r="T52" s="60"/>
+      <c r="U52" s="60"/>
+      <c r="V52" s="60"/>
+      <c r="W52" s="60"/>
+      <c r="X52" s="60"/>
+      <c r="Y52" s="60"/>
+      <c r="Z52" s="59"/>
+      <c r="AA52" s="59"/>
+      <c r="AB52" s="59"/>
+      <c r="AC52" s="59"/>
+      <c r="AD52" s="59"/>
+      <c r="AE52" s="59"/>
+      <c r="AF52" s="59"/>
+      <c r="AG52" s="59"/>
       <c r="AH52" s="25"/>
       <c r="AI52" s="25"/>
-      <c r="AJ52" s="53"/>
+      <c r="AJ52" s="89"/>
     </row>
     <row r="53" spans="1:36" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A53" s="53"/>
+      <c r="A53" s="89"/>
       <c r="B53" s="1"/>
       <c r="C53" s="42"/>
-      <c r="D53" s="61"/>
-      <c r="E53" s="61"/>
-      <c r="F53" s="61"/>
-      <c r="G53" s="61"/>
+      <c r="D53" s="59"/>
+      <c r="E53" s="59"/>
+      <c r="F53" s="59"/>
+      <c r="G53" s="59"/>
       <c r="H53" s="42"/>
-      <c r="I53" s="61"/>
-      <c r="J53" s="61"/>
-      <c r="K53" s="61"/>
+      <c r="I53" s="59"/>
+      <c r="J53" s="59"/>
+      <c r="K53" s="59"/>
       <c r="L53" s="42"/>
-      <c r="M53" s="61"/>
-      <c r="N53" s="61"/>
-      <c r="O53" s="61"/>
-      <c r="P53" s="61"/>
-      <c r="Q53" s="61"/>
-      <c r="R53" s="61"/>
-      <c r="S53" s="61"/>
-      <c r="T53" s="62"/>
-      <c r="U53" s="62"/>
-      <c r="V53" s="62"/>
-      <c r="W53" s="62"/>
-      <c r="X53" s="62"/>
-      <c r="Y53" s="62"/>
-      <c r="Z53" s="61"/>
-      <c r="AA53" s="61"/>
-      <c r="AB53" s="61"/>
-      <c r="AC53" s="61"/>
-      <c r="AD53" s="61"/>
-      <c r="AE53" s="61"/>
-      <c r="AF53" s="61"/>
-      <c r="AG53" s="61"/>
+      <c r="M53" s="59"/>
+      <c r="N53" s="59"/>
+      <c r="O53" s="59"/>
+      <c r="P53" s="59"/>
+      <c r="Q53" s="59"/>
+      <c r="R53" s="59"/>
+      <c r="S53" s="59"/>
+      <c r="T53" s="60"/>
+      <c r="U53" s="60"/>
+      <c r="V53" s="60"/>
+      <c r="W53" s="60"/>
+      <c r="X53" s="60"/>
+      <c r="Y53" s="60"/>
+      <c r="Z53" s="59"/>
+      <c r="AA53" s="59"/>
+      <c r="AB53" s="59"/>
+      <c r="AC53" s="59"/>
+      <c r="AD53" s="59"/>
+      <c r="AE53" s="59"/>
+      <c r="AF53" s="59"/>
+      <c r="AG53" s="59"/>
       <c r="AH53" s="25"/>
       <c r="AI53" s="25"/>
-      <c r="AJ53" s="53"/>
+      <c r="AJ53" s="89"/>
     </row>
     <row r="54" spans="1:36" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A54" s="53"/>
+      <c r="A54" s="89"/>
       <c r="B54" s="1"/>
       <c r="C54" s="42"/>
-      <c r="D54" s="61"/>
-      <c r="E54" s="61"/>
-      <c r="F54" s="61"/>
-      <c r="G54" s="61"/>
+      <c r="D54" s="59"/>
+      <c r="E54" s="59"/>
+      <c r="F54" s="59"/>
+      <c r="G54" s="59"/>
       <c r="H54" s="42"/>
-      <c r="I54" s="61"/>
-      <c r="J54" s="61"/>
-      <c r="K54" s="61"/>
+      <c r="I54" s="59"/>
+      <c r="J54" s="59"/>
+      <c r="K54" s="59"/>
       <c r="L54" s="42"/>
-      <c r="M54" s="61"/>
-      <c r="N54" s="61"/>
-      <c r="O54" s="61"/>
-      <c r="P54" s="61"/>
-      <c r="Q54" s="61"/>
-      <c r="R54" s="61"/>
-      <c r="S54" s="61"/>
-      <c r="T54" s="62"/>
-      <c r="U54" s="62"/>
-      <c r="V54" s="62"/>
-      <c r="W54" s="62"/>
-      <c r="X54" s="62"/>
-      <c r="Y54" s="62"/>
-      <c r="Z54" s="61"/>
-      <c r="AA54" s="61"/>
-      <c r="AB54" s="61"/>
-      <c r="AC54" s="61"/>
-      <c r="AD54" s="61"/>
-      <c r="AE54" s="61"/>
-      <c r="AF54" s="61"/>
-      <c r="AG54" s="61"/>
+      <c r="M54" s="59"/>
+      <c r="N54" s="59"/>
+      <c r="O54" s="59"/>
+      <c r="P54" s="59"/>
+      <c r="Q54" s="59"/>
+      <c r="R54" s="59"/>
+      <c r="S54" s="59"/>
+      <c r="T54" s="60"/>
+      <c r="U54" s="60"/>
+      <c r="V54" s="60"/>
+      <c r="W54" s="60"/>
+      <c r="X54" s="60"/>
+      <c r="Y54" s="60"/>
+      <c r="Z54" s="59"/>
+      <c r="AA54" s="59"/>
+      <c r="AB54" s="59"/>
+      <c r="AC54" s="59"/>
+      <c r="AD54" s="59"/>
+      <c r="AE54" s="59"/>
+      <c r="AF54" s="59"/>
+      <c r="AG54" s="59"/>
       <c r="AH54" s="25"/>
       <c r="AI54" s="25"/>
-      <c r="AJ54" s="53"/>
+      <c r="AJ54" s="89"/>
     </row>
     <row r="55" spans="1:36" ht="10.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A55" s="53"/>
+      <c r="A55" s="89"/>
       <c r="B55" s="11"/>
       <c r="C55" s="11"/>
       <c r="D55" s="11"/>
@@ -3209,52 +3205,52 @@
       <c r="AG55" s="11"/>
       <c r="AH55" s="11"/>
       <c r="AI55" s="11"/>
-      <c r="AJ55" s="53"/>
+      <c r="AJ55" s="89"/>
     </row>
     <row r="56" spans="1:36" ht="9.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A56" s="53"/>
+      <c r="A56" s="89"/>
       <c r="B56" s="1"/>
       <c r="C56" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="D56" s="91" t="s">
-        <v>35</v>
+      <c r="D56" s="53" t="s">
+        <v>34</v>
       </c>
-      <c r="E56" s="91"/>
-      <c r="F56" s="91"/>
-      <c r="G56" s="91"/>
-      <c r="H56" s="91"/>
-      <c r="I56" s="91"/>
-      <c r="J56" s="91"/>
-      <c r="K56" s="91"/>
-      <c r="L56" s="91"/>
-      <c r="M56" s="91"/>
-      <c r="N56" s="91"/>
-      <c r="O56" s="91"/>
-      <c r="P56" s="91"/>
+      <c r="E56" s="53"/>
+      <c r="F56" s="53"/>
+      <c r="G56" s="53"/>
+      <c r="H56" s="53"/>
+      <c r="I56" s="53"/>
+      <c r="J56" s="53"/>
+      <c r="K56" s="53"/>
+      <c r="L56" s="53"/>
+      <c r="M56" s="53"/>
+      <c r="N56" s="53"/>
+      <c r="O56" s="53"/>
+      <c r="P56" s="53"/>
       <c r="Q56" s="28"/>
-      <c r="R56" s="56"/>
-      <c r="S56" s="56"/>
-      <c r="T56" s="56"/>
-      <c r="U56" s="56"/>
-      <c r="V56" s="56"/>
-      <c r="W56" s="56"/>
-      <c r="X56" s="56"/>
-      <c r="Y56" s="56"/>
-      <c r="Z56" s="56"/>
-      <c r="AA56" s="56"/>
-      <c r="AB56" s="56"/>
-      <c r="AC56" s="56"/>
-      <c r="AD56" s="56"/>
-      <c r="AE56" s="56"/>
-      <c r="AF56" s="56"/>
-      <c r="AG56" s="56"/>
-      <c r="AH56" s="56"/>
-      <c r="AI56" s="56"/>
-      <c r="AJ56" s="53"/>
+      <c r="R56" s="58"/>
+      <c r="S56" s="58"/>
+      <c r="T56" s="58"/>
+      <c r="U56" s="58"/>
+      <c r="V56" s="58"/>
+      <c r="W56" s="58"/>
+      <c r="X56" s="58"/>
+      <c r="Y56" s="58"/>
+      <c r="Z56" s="58"/>
+      <c r="AA56" s="58"/>
+      <c r="AB56" s="58"/>
+      <c r="AC56" s="58"/>
+      <c r="AD56" s="58"/>
+      <c r="AE56" s="58"/>
+      <c r="AF56" s="58"/>
+      <c r="AG56" s="58"/>
+      <c r="AH56" s="58"/>
+      <c r="AI56" s="58"/>
+      <c r="AJ56" s="89"/>
     </row>
     <row r="57" spans="1:36" ht="8.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A57" s="53"/>
+      <c r="A57" s="89"/>
       <c r="B57" s="11"/>
       <c r="C57" s="11"/>
       <c r="D57" s="11"/>
@@ -3289,49 +3285,50 @@
       <c r="AG57" s="11"/>
       <c r="AH57" s="11"/>
       <c r="AI57" s="11"/>
-      <c r="AJ57" s="53"/>
+      <c r="AJ57" s="89"/>
     </row>
     <row r="58" spans="1:36" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A58" s="53"/>
+      <c r="A58" s="89"/>
       <c r="B58" s="1"/>
       <c r="C58" s="1"/>
       <c r="E58" s="11" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F58" s="11"/>
       <c r="G58" s="11"/>
-      <c r="L58" s="57"/>
-      <c r="M58" s="58"/>
-      <c r="N58" s="70" t="s">
-        <v>8</v>
+      <c r="L58" s="81"/>
+      <c r="M58" s="82"/>
+      <c r="N58" s="82"/>
+      <c r="O58" s="93"/>
+      <c r="P58" s="92"/>
+      <c r="Q58" s="82" t="s">
+        <v>37</v>
       </c>
-      <c r="O58" s="70"/>
-      <c r="P58" s="70"/>
-      <c r="Q58" s="71"/>
+      <c r="R58" s="84"/>
       <c r="T58" s="9"/>
       <c r="U58" s="9"/>
       <c r="V58" s="9"/>
-      <c r="W58" s="60" t="s">
+      <c r="W58" s="86" t="s">
         <v>22</v>
       </c>
-      <c r="X58" s="60"/>
-      <c r="Y58" s="60"/>
-      <c r="Z58" s="60"/>
-      <c r="AA58" s="60"/>
-      <c r="AB58" s="60"/>
-      <c r="AC58" s="63"/>
-      <c r="AD58" s="64"/>
-      <c r="AE58" s="64"/>
-      <c r="AF58" s="58" t="s">
+      <c r="X58" s="86"/>
+      <c r="Y58" s="86"/>
+      <c r="Z58" s="86"/>
+      <c r="AA58" s="86"/>
+      <c r="AB58" s="86"/>
+      <c r="AC58" s="87"/>
+      <c r="AD58" s="88"/>
+      <c r="AE58" s="88"/>
+      <c r="AF58" s="82" t="s">
         <v>23</v>
       </c>
-      <c r="AG58" s="65"/>
+      <c r="AG58" s="84"/>
       <c r="AH58" s="9"/>
       <c r="AI58" s="9"/>
-      <c r="AJ58" s="53"/>
+      <c r="AJ58" s="89"/>
     </row>
     <row r="59" spans="1:36" ht="3.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A59" s="53"/>
+      <c r="A59" s="89"/>
       <c r="B59" s="1"/>
       <c r="C59" s="1"/>
       <c r="D59" s="1"/>
@@ -3366,14 +3363,14 @@
       <c r="AG59" s="1"/>
       <c r="AH59" s="1"/>
       <c r="AI59" s="1"/>
-      <c r="AJ59" s="53"/>
+      <c r="AJ59" s="89"/>
     </row>
     <row r="60" spans="1:36" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A60" s="53"/>
+      <c r="A60" s="89"/>
       <c r="B60" s="1"/>
       <c r="C60" s="1"/>
       <c r="E60" s="11" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F60" s="11"/>
       <c r="G60" s="11"/>
@@ -3381,40 +3378,40 @@
       <c r="I60" s="11"/>
       <c r="J60" s="11"/>
       <c r="K60" s="11"/>
-      <c r="L60" s="57"/>
-      <c r="M60" s="58"/>
-      <c r="N60" s="58"/>
-      <c r="O60" s="58" t="s">
-        <v>24</v>
+      <c r="L60" s="81"/>
+      <c r="M60" s="82"/>
+      <c r="N60" s="82"/>
+      <c r="O60" s="93"/>
+      <c r="P60" s="92"/>
+      <c r="Q60" s="82" t="s">
+        <v>37</v>
       </c>
-      <c r="P60" s="58"/>
-      <c r="Q60" s="58"/>
-      <c r="R60" s="65"/>
+      <c r="R60" s="84"/>
       <c r="S60" s="1"/>
       <c r="T60" s="1"/>
       <c r="U60" s="1"/>
       <c r="V60" s="1"/>
-      <c r="W60" s="60" t="s">
+      <c r="W60" s="86" t="s">
+        <v>24</v>
+      </c>
+      <c r="X60" s="86"/>
+      <c r="Y60" s="86"/>
+      <c r="Z60" s="86"/>
+      <c r="AA60" s="86"/>
+      <c r="AB60" s="86"/>
+      <c r="AC60" s="87"/>
+      <c r="AD60" s="88"/>
+      <c r="AE60" s="88"/>
+      <c r="AF60" s="82" t="s">
         <v>25</v>
       </c>
-      <c r="X60" s="60"/>
-      <c r="Y60" s="60"/>
-      <c r="Z60" s="60"/>
-      <c r="AA60" s="60"/>
-      <c r="AB60" s="60"/>
-      <c r="AC60" s="63"/>
-      <c r="AD60" s="64"/>
-      <c r="AE60" s="64"/>
-      <c r="AF60" s="58" t="s">
-        <v>26</v>
-      </c>
-      <c r="AG60" s="65"/>
+      <c r="AG60" s="84"/>
       <c r="AH60" s="9"/>
       <c r="AI60" s="9"/>
-      <c r="AJ60" s="53"/>
+      <c r="AJ60" s="89"/>
     </row>
     <row r="61" spans="1:36" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A61" s="53"/>
+      <c r="A61" s="89"/>
       <c r="B61" s="11"/>
       <c r="C61" s="11"/>
       <c r="D61" s="11"/>
@@ -3449,52 +3446,52 @@
       <c r="AG61" s="11"/>
       <c r="AH61" s="11"/>
       <c r="AI61" s="11"/>
-      <c r="AJ61" s="53"/>
+      <c r="AJ61" s="89"/>
     </row>
     <row r="62" spans="1:36" ht="9.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A62" s="53"/>
+      <c r="A62" s="89"/>
       <c r="B62" s="1"/>
       <c r="C62" s="10" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
-      <c r="D62" s="55" t="s">
-        <v>27</v>
+      <c r="D62" s="70" t="s">
+        <v>26</v>
       </c>
-      <c r="E62" s="55"/>
-      <c r="F62" s="55"/>
-      <c r="G62" s="55"/>
-      <c r="H62" s="55"/>
-      <c r="I62" s="55"/>
-      <c r="J62" s="55"/>
-      <c r="K62" s="55"/>
-      <c r="L62" s="55"/>
-      <c r="M62" s="55"/>
-      <c r="N62" s="55"/>
-      <c r="O62" s="55"/>
-      <c r="P62" s="55"/>
+      <c r="E62" s="70"/>
+      <c r="F62" s="70"/>
+      <c r="G62" s="70"/>
+      <c r="H62" s="70"/>
+      <c r="I62" s="70"/>
+      <c r="J62" s="70"/>
+      <c r="K62" s="70"/>
+      <c r="L62" s="70"/>
+      <c r="M62" s="70"/>
+      <c r="N62" s="70"/>
+      <c r="O62" s="70"/>
+      <c r="P62" s="70"/>
       <c r="Q62" s="28"/>
-      <c r="R62" s="56"/>
-      <c r="S62" s="56"/>
-      <c r="T62" s="56"/>
-      <c r="U62" s="56"/>
-      <c r="V62" s="56"/>
-      <c r="W62" s="56"/>
-      <c r="X62" s="56"/>
-      <c r="Y62" s="56"/>
-      <c r="Z62" s="56"/>
-      <c r="AA62" s="56"/>
-      <c r="AB62" s="56"/>
-      <c r="AC62" s="56"/>
-      <c r="AD62" s="56"/>
-      <c r="AE62" s="56"/>
-      <c r="AF62" s="56"/>
-      <c r="AG62" s="56"/>
-      <c r="AH62" s="56"/>
-      <c r="AI62" s="56"/>
-      <c r="AJ62" s="53"/>
+      <c r="R62" s="58"/>
+      <c r="S62" s="58"/>
+      <c r="T62" s="58"/>
+      <c r="U62" s="58"/>
+      <c r="V62" s="58"/>
+      <c r="W62" s="58"/>
+      <c r="X62" s="58"/>
+      <c r="Y62" s="58"/>
+      <c r="Z62" s="58"/>
+      <c r="AA62" s="58"/>
+      <c r="AB62" s="58"/>
+      <c r="AC62" s="58"/>
+      <c r="AD62" s="58"/>
+      <c r="AE62" s="58"/>
+      <c r="AF62" s="58"/>
+      <c r="AG62" s="58"/>
+      <c r="AH62" s="58"/>
+      <c r="AI62" s="58"/>
+      <c r="AJ62" s="89"/>
     </row>
     <row r="63" spans="1:36" ht="9.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A63" s="53"/>
+      <c r="A63" s="89"/>
       <c r="B63" s="1"/>
       <c r="C63" s="1"/>
       <c r="D63" s="1"/>
@@ -3528,17 +3525,17 @@
       <c r="AG63" s="9"/>
       <c r="AH63" s="9"/>
       <c r="AI63" s="9"/>
-      <c r="AJ63" s="53"/>
+      <c r="AJ63" s="89"/>
     </row>
     <row r="64" spans="1:36" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A64" s="53"/>
+      <c r="A64" s="89"/>
       <c r="B64" s="1"/>
       <c r="C64" s="1"/>
       <c r="AI64" s="24"/>
-      <c r="AJ64" s="53"/>
+      <c r="AJ64" s="89"/>
     </row>
     <row r="65" spans="1:36" ht="5.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A65" s="53"/>
+      <c r="A65" s="89"/>
       <c r="B65" s="1"/>
       <c r="C65" s="1"/>
       <c r="D65" s="1"/>
@@ -3559,10 +3556,10 @@
       <c r="S65" s="9"/>
       <c r="T65" s="1"/>
       <c r="AI65" s="1"/>
-      <c r="AJ65" s="53"/>
+      <c r="AJ65" s="89"/>
     </row>
     <row r="66" spans="1:36" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A66" s="53"/>
+      <c r="A66" s="89"/>
       <c r="B66" s="9"/>
       <c r="C66" s="9"/>
       <c r="P66" s="9"/>
@@ -3571,10 +3568,10 @@
       <c r="S66" s="9"/>
       <c r="T66" s="9"/>
       <c r="AI66" s="9"/>
-      <c r="AJ66" s="53"/>
+      <c r="AJ66" s="89"/>
     </row>
     <row r="67" spans="1:36" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A67" s="53"/>
+      <c r="A67" s="89"/>
       <c r="B67" s="9"/>
       <c r="C67" s="49"/>
       <c r="D67" s="45"/>
@@ -3607,10 +3604,10 @@
       <c r="AG67" s="25"/>
       <c r="AH67" s="9"/>
       <c r="AI67" s="9"/>
-      <c r="AJ67" s="53"/>
+      <c r="AJ67" s="89"/>
     </row>
     <row r="68" spans="1:36" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A68" s="53"/>
+      <c r="A68" s="89"/>
       <c r="B68" s="9"/>
       <c r="C68" s="9"/>
       <c r="D68" s="43"/>
@@ -3638,10 +3635,10 @@
       <c r="AG68" s="25"/>
       <c r="AH68" s="9"/>
       <c r="AI68" s="9"/>
-      <c r="AJ68" s="53"/>
+      <c r="AJ68" s="89"/>
     </row>
     <row r="69" spans="1:36" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A69" s="53"/>
+      <c r="A69" s="89"/>
       <c r="B69" s="9"/>
       <c r="C69" s="9"/>
       <c r="D69" s="43"/>
@@ -3662,10 +3659,10 @@
       <c r="S69" s="9"/>
       <c r="T69" s="9"/>
       <c r="AI69" s="9"/>
-      <c r="AJ69" s="53"/>
+      <c r="AJ69" s="89"/>
     </row>
     <row r="70" spans="1:36" ht="5.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A70" s="53"/>
+      <c r="A70" s="89"/>
       <c r="B70" s="9"/>
       <c r="C70" s="9"/>
       <c r="D70" s="43"/>
@@ -3699,38 +3696,38 @@
       <c r="AG70" s="1"/>
       <c r="AH70" s="1"/>
       <c r="AI70" s="9"/>
-      <c r="AJ70" s="53"/>
+      <c r="AJ70" s="89"/>
     </row>
     <row r="71" spans="1:36" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A71" s="53"/>
+      <c r="A71" s="89"/>
       <c r="B71" s="9"/>
-      <c r="C71" s="68" t="s">
-        <v>28</v>
+      <c r="C71" s="85" t="s">
+        <v>27</v>
       </c>
-      <c r="D71" s="68"/>
-      <c r="E71" s="68"/>
-      <c r="F71" s="68"/>
-      <c r="G71" s="68"/>
-      <c r="H71" s="68"/>
-      <c r="I71" s="68"/>
-      <c r="J71" s="68"/>
-      <c r="K71" s="92"/>
-      <c r="L71" s="93"/>
-      <c r="M71" s="93"/>
-      <c r="N71" s="93"/>
-      <c r="O71" s="93"/>
-      <c r="P71" s="93"/>
+      <c r="D71" s="85"/>
+      <c r="E71" s="85"/>
+      <c r="F71" s="85"/>
+      <c r="G71" s="85"/>
+      <c r="H71" s="85"/>
+      <c r="I71" s="85"/>
+      <c r="J71" s="85"/>
+      <c r="K71" s="54"/>
+      <c r="L71" s="55"/>
+      <c r="M71" s="55"/>
+      <c r="N71" s="55"/>
+      <c r="O71" s="55"/>
+      <c r="P71" s="55"/>
       <c r="Q71" s="34"/>
       <c r="R71" s="9"/>
       <c r="S71" s="9"/>
       <c r="T71" s="9"/>
       <c r="V71" s="9"/>
       <c r="W71" s="9"/>
-      <c r="X71" s="59" t="s">
-        <v>29</v>
+      <c r="X71" s="91" t="s">
+        <v>28</v>
       </c>
-      <c r="Y71" s="59"/>
-      <c r="Z71" s="59"/>
+      <c r="Y71" s="91"/>
+      <c r="Z71" s="91"/>
       <c r="AA71" s="35"/>
       <c r="AB71" s="36"/>
       <c r="AC71" s="36"/>
@@ -3740,10 +3737,10 @@
       <c r="AG71" s="37"/>
       <c r="AH71" s="9"/>
       <c r="AI71" s="9"/>
-      <c r="AJ71" s="53"/>
+      <c r="AJ71" s="89"/>
     </row>
     <row r="72" spans="1:36" ht="3.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A72" s="53"/>
+      <c r="A72" s="89"/>
       <c r="B72" s="9"/>
       <c r="C72" s="9"/>
       <c r="D72" s="9"/>
@@ -3777,86 +3774,195 @@
       <c r="AG72" s="9"/>
       <c r="AH72" s="9"/>
       <c r="AI72" s="9"/>
-      <c r="AJ72" s="53"/>
+      <c r="AJ72" s="89"/>
     </row>
     <row r="73" spans="1:36" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A73" s="53"/>
-      <c r="B73" s="54"/>
-      <c r="C73" s="54"/>
-      <c r="D73" s="54"/>
-      <c r="E73" s="54"/>
-      <c r="F73" s="54"/>
-      <c r="G73" s="54"/>
-      <c r="H73" s="54"/>
-      <c r="I73" s="54"/>
-      <c r="J73" s="54"/>
-      <c r="K73" s="54"/>
-      <c r="L73" s="54"/>
-      <c r="M73" s="54"/>
-      <c r="N73" s="54"/>
-      <c r="O73" s="54"/>
-      <c r="P73" s="54"/>
-      <c r="Q73" s="54"/>
-      <c r="R73" s="54"/>
-      <c r="S73" s="54"/>
-      <c r="T73" s="54"/>
-      <c r="U73" s="54"/>
-      <c r="V73" s="54"/>
-      <c r="W73" s="54"/>
-      <c r="X73" s="54"/>
-      <c r="Y73" s="54"/>
-      <c r="Z73" s="54"/>
-      <c r="AA73" s="54"/>
-      <c r="AB73" s="54"/>
-      <c r="AC73" s="54"/>
-      <c r="AD73" s="54"/>
-      <c r="AE73" s="54"/>
-      <c r="AF73" s="54"/>
-      <c r="AG73" s="54"/>
-      <c r="AH73" s="54"/>
-      <c r="AI73" s="54"/>
-      <c r="AJ73" s="53"/>
+      <c r="A73" s="89"/>
+      <c r="B73" s="90"/>
+      <c r="C73" s="90"/>
+      <c r="D73" s="90"/>
+      <c r="E73" s="90"/>
+      <c r="F73" s="90"/>
+      <c r="G73" s="90"/>
+      <c r="H73" s="90"/>
+      <c r="I73" s="90"/>
+      <c r="J73" s="90"/>
+      <c r="K73" s="90"/>
+      <c r="L73" s="90"/>
+      <c r="M73" s="90"/>
+      <c r="N73" s="90"/>
+      <c r="O73" s="90"/>
+      <c r="P73" s="90"/>
+      <c r="Q73" s="90"/>
+      <c r="R73" s="90"/>
+      <c r="S73" s="90"/>
+      <c r="T73" s="90"/>
+      <c r="U73" s="90"/>
+      <c r="V73" s="90"/>
+      <c r="W73" s="90"/>
+      <c r="X73" s="90"/>
+      <c r="Y73" s="90"/>
+      <c r="Z73" s="90"/>
+      <c r="AA73" s="90"/>
+      <c r="AB73" s="90"/>
+      <c r="AC73" s="90"/>
+      <c r="AD73" s="90"/>
+      <c r="AE73" s="90"/>
+      <c r="AF73" s="90"/>
+      <c r="AG73" s="90"/>
+      <c r="AH73" s="90"/>
+      <c r="AI73" s="90"/>
+      <c r="AJ73" s="89"/>
     </row>
     <row r="74" spans="1:36" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A74" s="53"/>
-      <c r="B74" s="54"/>
-      <c r="C74" s="54"/>
-      <c r="D74" s="54"/>
-      <c r="E74" s="54"/>
-      <c r="F74" s="54"/>
-      <c r="G74" s="54"/>
-      <c r="H74" s="54"/>
-      <c r="I74" s="54"/>
-      <c r="J74" s="54"/>
-      <c r="K74" s="54"/>
-      <c r="L74" s="54"/>
-      <c r="M74" s="54"/>
-      <c r="N74" s="54"/>
-      <c r="O74" s="54"/>
-      <c r="P74" s="54"/>
-      <c r="Q74" s="54"/>
-      <c r="R74" s="54"/>
-      <c r="S74" s="54"/>
-      <c r="T74" s="54"/>
-      <c r="U74" s="54"/>
-      <c r="V74" s="54"/>
-      <c r="W74" s="54"/>
-      <c r="X74" s="54"/>
-      <c r="Y74" s="54"/>
-      <c r="Z74" s="54"/>
-      <c r="AA74" s="54"/>
-      <c r="AB74" s="54"/>
-      <c r="AC74" s="54"/>
-      <c r="AD74" s="54"/>
-      <c r="AE74" s="54"/>
-      <c r="AF74" s="54"/>
-      <c r="AG74" s="54"/>
-      <c r="AH74" s="54"/>
-      <c r="AI74" s="54"/>
-      <c r="AJ74" s="53"/>
+      <c r="A74" s="89"/>
+      <c r="B74" s="90"/>
+      <c r="C74" s="90"/>
+      <c r="D74" s="90"/>
+      <c r="E74" s="90"/>
+      <c r="F74" s="90"/>
+      <c r="G74" s="90"/>
+      <c r="H74" s="90"/>
+      <c r="I74" s="90"/>
+      <c r="J74" s="90"/>
+      <c r="K74" s="90"/>
+      <c r="L74" s="90"/>
+      <c r="M74" s="90"/>
+      <c r="N74" s="90"/>
+      <c r="O74" s="90"/>
+      <c r="P74" s="90"/>
+      <c r="Q74" s="90"/>
+      <c r="R74" s="90"/>
+      <c r="S74" s="90"/>
+      <c r="T74" s="90"/>
+      <c r="U74" s="90"/>
+      <c r="V74" s="90"/>
+      <c r="W74" s="90"/>
+      <c r="X74" s="90"/>
+      <c r="Y74" s="90"/>
+      <c r="Z74" s="90"/>
+      <c r="AA74" s="90"/>
+      <c r="AB74" s="90"/>
+      <c r="AC74" s="90"/>
+      <c r="AD74" s="90"/>
+      <c r="AE74" s="90"/>
+      <c r="AF74" s="90"/>
+      <c r="AG74" s="90"/>
+      <c r="AH74" s="90"/>
+      <c r="AI74" s="90"/>
+      <c r="AJ74" s="89"/>
     </row>
   </sheetData>
   <mergeCells count="133">
+    <mergeCell ref="A1:A74"/>
+    <mergeCell ref="AJ1:AJ74"/>
+    <mergeCell ref="B73:AI74"/>
+    <mergeCell ref="D47:Q47"/>
+    <mergeCell ref="R8:AI8"/>
+    <mergeCell ref="D8:Q8"/>
+    <mergeCell ref="R56:AI56"/>
+    <mergeCell ref="R62:AI62"/>
+    <mergeCell ref="D43:Q43"/>
+    <mergeCell ref="D62:P62"/>
+    <mergeCell ref="X71:Z71"/>
+    <mergeCell ref="L60:N60"/>
+    <mergeCell ref="W60:AB60"/>
+    <mergeCell ref="D52:G52"/>
+    <mergeCell ref="I52:K52"/>
+    <mergeCell ref="M52:S52"/>
+    <mergeCell ref="T52:Y52"/>
+    <mergeCell ref="D54:G54"/>
+    <mergeCell ref="I54:K54"/>
+    <mergeCell ref="M54:S54"/>
+    <mergeCell ref="L58:N58"/>
+    <mergeCell ref="Q58:R58"/>
+    <mergeCell ref="Q60:R60"/>
+    <mergeCell ref="C71:J71"/>
+    <mergeCell ref="W58:AB58"/>
+    <mergeCell ref="AC58:AE58"/>
+    <mergeCell ref="AF58:AG58"/>
+    <mergeCell ref="T54:Y54"/>
+    <mergeCell ref="D50:G50"/>
+    <mergeCell ref="I50:K50"/>
+    <mergeCell ref="M50:S50"/>
+    <mergeCell ref="T50:Y50"/>
+    <mergeCell ref="D51:G51"/>
+    <mergeCell ref="I51:K51"/>
+    <mergeCell ref="AC60:AE60"/>
+    <mergeCell ref="M51:S51"/>
+    <mergeCell ref="T51:Y51"/>
+    <mergeCell ref="Z50:AG50"/>
+    <mergeCell ref="Z51:AG51"/>
+    <mergeCell ref="Z52:AG52"/>
+    <mergeCell ref="Z54:AG54"/>
+    <mergeCell ref="AF60:AG60"/>
+    <mergeCell ref="D45:K45"/>
+    <mergeCell ref="L45:O45"/>
+    <mergeCell ref="W45:Z45"/>
+    <mergeCell ref="AA45:AF45"/>
+    <mergeCell ref="D49:H49"/>
+    <mergeCell ref="I49:L49"/>
+    <mergeCell ref="M49:S49"/>
+    <mergeCell ref="T49:Y49"/>
+    <mergeCell ref="P45:S45"/>
+    <mergeCell ref="Z49:AG49"/>
+    <mergeCell ref="C36:G36"/>
+    <mergeCell ref="H36:O36"/>
+    <mergeCell ref="P36:R36"/>
+    <mergeCell ref="U36:AD36"/>
+    <mergeCell ref="AE36:AG36"/>
+    <mergeCell ref="C31:G31"/>
+    <mergeCell ref="H31:O31"/>
+    <mergeCell ref="P31:R31"/>
+    <mergeCell ref="U31:AD31"/>
+    <mergeCell ref="AE31:AG31"/>
+    <mergeCell ref="C35:G35"/>
+    <mergeCell ref="H35:O35"/>
+    <mergeCell ref="P35:R35"/>
+    <mergeCell ref="U35:AD35"/>
+    <mergeCell ref="AE35:AG35"/>
+    <mergeCell ref="C23:G23"/>
+    <mergeCell ref="H23:O23"/>
+    <mergeCell ref="P23:R23"/>
+    <mergeCell ref="U23:AD23"/>
+    <mergeCell ref="AE23:AG23"/>
+    <mergeCell ref="C24:G24"/>
+    <mergeCell ref="H24:O24"/>
+    <mergeCell ref="P24:R24"/>
+    <mergeCell ref="U24:AD24"/>
+    <mergeCell ref="AE24:AG24"/>
+    <mergeCell ref="C21:G21"/>
+    <mergeCell ref="H21:O21"/>
+    <mergeCell ref="P21:R21"/>
+    <mergeCell ref="U21:AD21"/>
+    <mergeCell ref="AE21:AG21"/>
+    <mergeCell ref="C22:G22"/>
+    <mergeCell ref="H22:O22"/>
+    <mergeCell ref="P22:R22"/>
+    <mergeCell ref="U22:AD22"/>
+    <mergeCell ref="AE22:AG22"/>
+    <mergeCell ref="C19:G19"/>
+    <mergeCell ref="H19:O19"/>
+    <mergeCell ref="P19:R19"/>
+    <mergeCell ref="U19:AD19"/>
+    <mergeCell ref="AE19:AG19"/>
+    <mergeCell ref="D15:R15"/>
+    <mergeCell ref="C20:G20"/>
+    <mergeCell ref="H20:O20"/>
+    <mergeCell ref="P20:R20"/>
+    <mergeCell ref="U20:AD20"/>
+    <mergeCell ref="AE20:AG20"/>
+    <mergeCell ref="Z10:AC10"/>
+    <mergeCell ref="AD10:AE10"/>
+    <mergeCell ref="C5:G5"/>
+    <mergeCell ref="E10:G10"/>
+    <mergeCell ref="C17:G17"/>
+    <mergeCell ref="H17:O17"/>
+    <mergeCell ref="P17:S17"/>
+    <mergeCell ref="U17:AD17"/>
+    <mergeCell ref="AE17:AH17"/>
+    <mergeCell ref="AF13:AH13"/>
+    <mergeCell ref="V15:AG15"/>
     <mergeCell ref="B1:W3"/>
     <mergeCell ref="Z1:AF3"/>
     <mergeCell ref="R43:AI43"/>
@@ -3881,115 +3987,6 @@
     <mergeCell ref="AC5:AH5"/>
     <mergeCell ref="H10:S10"/>
     <mergeCell ref="U10:Y10"/>
-    <mergeCell ref="Z10:AC10"/>
-    <mergeCell ref="AD10:AE10"/>
-    <mergeCell ref="C5:G5"/>
-    <mergeCell ref="E10:G10"/>
-    <mergeCell ref="C17:G17"/>
-    <mergeCell ref="H17:O17"/>
-    <mergeCell ref="P17:S17"/>
-    <mergeCell ref="U17:AD17"/>
-    <mergeCell ref="AE17:AH17"/>
-    <mergeCell ref="AF13:AH13"/>
-    <mergeCell ref="V15:AG15"/>
-    <mergeCell ref="C19:G19"/>
-    <mergeCell ref="H19:O19"/>
-    <mergeCell ref="P19:R19"/>
-    <mergeCell ref="U19:AD19"/>
-    <mergeCell ref="AE19:AG19"/>
-    <mergeCell ref="D15:R15"/>
-    <mergeCell ref="C20:G20"/>
-    <mergeCell ref="H20:O20"/>
-    <mergeCell ref="P20:R20"/>
-    <mergeCell ref="U20:AD20"/>
-    <mergeCell ref="AE20:AG20"/>
-    <mergeCell ref="C21:G21"/>
-    <mergeCell ref="H21:O21"/>
-    <mergeCell ref="P21:R21"/>
-    <mergeCell ref="U21:AD21"/>
-    <mergeCell ref="AE21:AG21"/>
-    <mergeCell ref="C22:G22"/>
-    <mergeCell ref="H22:O22"/>
-    <mergeCell ref="P22:R22"/>
-    <mergeCell ref="U22:AD22"/>
-    <mergeCell ref="AE22:AG22"/>
-    <mergeCell ref="C23:G23"/>
-    <mergeCell ref="H23:O23"/>
-    <mergeCell ref="P23:R23"/>
-    <mergeCell ref="U23:AD23"/>
-    <mergeCell ref="AE23:AG23"/>
-    <mergeCell ref="C24:G24"/>
-    <mergeCell ref="H24:O24"/>
-    <mergeCell ref="P24:R24"/>
-    <mergeCell ref="U24:AD24"/>
-    <mergeCell ref="AE24:AG24"/>
-    <mergeCell ref="C36:G36"/>
-    <mergeCell ref="H36:O36"/>
-    <mergeCell ref="P36:R36"/>
-    <mergeCell ref="U36:AD36"/>
-    <mergeCell ref="AE36:AG36"/>
-    <mergeCell ref="C31:G31"/>
-    <mergeCell ref="H31:O31"/>
-    <mergeCell ref="P31:R31"/>
-    <mergeCell ref="U31:AD31"/>
-    <mergeCell ref="AE31:AG31"/>
-    <mergeCell ref="C35:G35"/>
-    <mergeCell ref="H35:O35"/>
-    <mergeCell ref="P35:R35"/>
-    <mergeCell ref="U35:AD35"/>
-    <mergeCell ref="AE35:AG35"/>
-    <mergeCell ref="D45:K45"/>
-    <mergeCell ref="L45:O45"/>
-    <mergeCell ref="W45:Z45"/>
-    <mergeCell ref="AA45:AF45"/>
-    <mergeCell ref="D49:H49"/>
-    <mergeCell ref="I49:L49"/>
-    <mergeCell ref="M49:S49"/>
-    <mergeCell ref="T49:Y49"/>
-    <mergeCell ref="P45:S45"/>
-    <mergeCell ref="Z49:AG49"/>
-    <mergeCell ref="C71:J71"/>
-    <mergeCell ref="L58:M58"/>
-    <mergeCell ref="N58:Q58"/>
-    <mergeCell ref="W58:AB58"/>
-    <mergeCell ref="AC58:AE58"/>
-    <mergeCell ref="AF58:AG58"/>
-    <mergeCell ref="O60:R60"/>
-    <mergeCell ref="T54:Y54"/>
-    <mergeCell ref="D50:G50"/>
-    <mergeCell ref="I50:K50"/>
-    <mergeCell ref="M50:S50"/>
-    <mergeCell ref="T50:Y50"/>
-    <mergeCell ref="D51:G51"/>
-    <mergeCell ref="I51:K51"/>
-    <mergeCell ref="AC60:AE60"/>
-    <mergeCell ref="M51:S51"/>
-    <mergeCell ref="T51:Y51"/>
-    <mergeCell ref="Z50:AG50"/>
-    <mergeCell ref="Z51:AG51"/>
-    <mergeCell ref="Z52:AG52"/>
-    <mergeCell ref="Z54:AG54"/>
-    <mergeCell ref="AF60:AG60"/>
-    <mergeCell ref="A1:A74"/>
-    <mergeCell ref="AJ1:AJ74"/>
-    <mergeCell ref="B73:AI74"/>
-    <mergeCell ref="D47:Q47"/>
-    <mergeCell ref="R8:AI8"/>
-    <mergeCell ref="D8:Q8"/>
-    <mergeCell ref="R56:AI56"/>
-    <mergeCell ref="R62:AI62"/>
-    <mergeCell ref="D43:Q43"/>
-    <mergeCell ref="D62:P62"/>
-    <mergeCell ref="X71:Z71"/>
-    <mergeCell ref="L60:N60"/>
-    <mergeCell ref="W60:AB60"/>
-    <mergeCell ref="D52:G52"/>
-    <mergeCell ref="I52:K52"/>
-    <mergeCell ref="M52:S52"/>
-    <mergeCell ref="T52:Y52"/>
-    <mergeCell ref="D54:G54"/>
-    <mergeCell ref="I54:K54"/>
-    <mergeCell ref="M54:S54"/>
   </mergeCells>
   <pageMargins left="0.43307086614173229" right="0" top="0.19685039370078741" bottom="0" header="0" footer="0"/>
   <pageSetup paperSize="9" fitToWidth="0" fitToHeight="0" orientation="portrait" r:id="rId1"/>
